--- a/src/assets/files/Crew details including supernumeraries FAL 5.xlsx
+++ b/src/assets/files/Crew details including supernumeraries FAL 5.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adele/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adelebampton/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1024F9D7-4FF7-5E49-89D8-2A7334C44A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C893D320-8C4B-A547-A6E3-EA7EFBD3F400}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="31840" windowHeight="14380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="1626">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1814" uniqueCount="1625">
   <si>
     <t xml:space="preserve">Your reference (optional). 
 For example, vessel name or voyage number
@@ -126,9 +126,6 @@
     <t xml:space="preserve">Enter the 3-letter ISO country code as listed at https://www.iso.org/obp/ui/#search
 For example, GBR, SWE, NLD
 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
   </si>
   <si>
     <t>Latin Letters</t>
@@ -7262,15 +7259,13 @@
       <c r="Y6" s="6"/>
       <c r="Z6" s="7"/>
     </row>
-    <row r="7" spans="1:26" ht="16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" ht="15" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="12"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="1"/>
       <c r="I7" s="2"/>
@@ -34570,4193 +34565,4193 @@
   <sheetData>
     <row r="1" spans="1:7" ht="60" x14ac:dyDescent="0.2">
       <c r="A1" s="52" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="C2" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="D2" s="55" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="E2" s="55" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="F2" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="G2" s="55" t="s">
         <v>32</v>
-      </c>
-      <c r="G2" s="55" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="53" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="C3" s="57" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="57" t="s">
+      <c r="D3" s="57" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="E3" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="F3" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="G3" s="58" t="s">
         <v>39</v>
-      </c>
-      <c r="G3" s="58" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="53" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C4" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="B4" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="57" t="s">
+      <c r="D4" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="E4" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="F4" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="G4" s="58" t="s">
         <v>45</v>
-      </c>
-      <c r="G4" s="58" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="53" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" s="57" t="s">
+      <c r="D5" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="E5" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="F5" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="G5" s="58" t="s">
         <v>51</v>
-      </c>
-      <c r="G5" s="58" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="53" t="s">
+        <v>52</v>
+      </c>
+      <c r="B6" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="B6" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="C6" s="57" t="s">
+      <c r="D6" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="E6" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="E6" s="57" t="s">
+      <c r="F6" s="57" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="G6" s="58" t="s">
         <v>57</v>
-      </c>
-      <c r="G6" s="58" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B7" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="B7" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="57" t="s">
+      <c r="D7" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="E7" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="57" t="s">
+      <c r="F7" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="G7" s="58" t="s">
         <v>63</v>
-      </c>
-      <c r="G7" s="58" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="53" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="C8" s="57" t="s">
+      <c r="D8" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="E8" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="F8" s="57" t="s">
         <v>68</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="G8" s="58" t="s">
         <v>69</v>
-      </c>
-      <c r="G8" s="58" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="53" t="s">
+        <v>70</v>
+      </c>
+      <c r="B9" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" s="57" t="s">
+      <c r="D9" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="E9" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="F9" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="G9" s="58" t="s">
         <v>75</v>
-      </c>
-      <c r="G9" s="58" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A10" s="53" t="s">
+        <v>76</v>
+      </c>
+      <c r="B10" s="56" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="56" t="s">
+      <c r="C10" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="57" t="s">
+      <c r="D10" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="E10" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="F10" s="57" t="s">
         <v>81</v>
       </c>
-      <c r="F10" s="57" t="s">
+      <c r="G10" s="58" t="s">
         <v>82</v>
-      </c>
-      <c r="G10" s="58" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="53" t="s">
+        <v>83</v>
+      </c>
+      <c r="B11" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="56" t="s">
+      <c r="C11" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="57" t="s">
+      <c r="D11" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="E11" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="57" t="s">
+      <c r="F11" s="57" t="s">
         <v>88</v>
       </c>
-      <c r="F11" s="57" t="s">
+      <c r="G11" s="58" t="s">
         <v>89</v>
-      </c>
-      <c r="G11" s="58" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="53" t="s">
+        <v>90</v>
+      </c>
+      <c r="B12" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C12" s="57" t="s">
         <v>91</v>
       </c>
-      <c r="B12" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="C12" s="57" t="s">
+      <c r="D12" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="E12" s="57" t="s">
         <v>93</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="F12" s="57" t="s">
         <v>94</v>
       </c>
-      <c r="F12" s="57" t="s">
+      <c r="G12" s="58" t="s">
         <v>95</v>
-      </c>
-      <c r="G12" s="58" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="53" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C13" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="B13" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="57" t="s">
+      <c r="D13" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="E13" s="57" t="s">
         <v>99</v>
       </c>
-      <c r="E13" s="57" t="s">
+      <c r="F13" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="F13" s="57" t="s">
+      <c r="G13" s="58" t="s">
         <v>101</v>
-      </c>
-      <c r="G13" s="58" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="53" t="s">
+        <v>102</v>
+      </c>
+      <c r="B14" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C14" s="57" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="57" t="s">
+      <c r="D14" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="E14" s="57" t="s">
         <v>105</v>
       </c>
-      <c r="E14" s="57" t="s">
+      <c r="F14" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="F14" s="57" t="s">
+      <c r="G14" s="58" t="s">
         <v>107</v>
-      </c>
-      <c r="G14" s="58" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A15" s="53" t="s">
+        <v>108</v>
+      </c>
+      <c r="B15" s="56" t="s">
         <v>109</v>
       </c>
-      <c r="B15" s="56" t="s">
+      <c r="C15" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="C15" s="57" t="s">
+      <c r="D15" s="57" t="s">
         <v>111</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="E15" s="57" t="s">
         <v>112</v>
       </c>
-      <c r="E15" s="57" t="s">
+      <c r="F15" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="F15" s="57" t="s">
+      <c r="G15" s="58" t="s">
         <v>114</v>
-      </c>
-      <c r="G15" s="58" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A16" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="B16" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="C16" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="B16" s="56" t="s">
-        <v>110</v>
-      </c>
-      <c r="C16" s="57" t="s">
+      <c r="D16" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="57" t="s">
+      <c r="E16" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="E16" s="57" t="s">
+      <c r="F16" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="F16" s="57" t="s">
+      <c r="G16" s="58" t="s">
         <v>120</v>
-      </c>
-      <c r="G16" s="58" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A17" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="B17" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="C17" s="57" t="s">
         <v>122</v>
       </c>
-      <c r="B17" s="56" t="s">
-        <v>110</v>
-      </c>
-      <c r="C17" s="57" t="s">
+      <c r="D17" s="57" t="s">
         <v>123</v>
       </c>
-      <c r="D17" s="57" t="s">
+      <c r="E17" s="57" t="s">
         <v>124</v>
       </c>
-      <c r="E17" s="57" t="s">
+      <c r="F17" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="F17" s="57" t="s">
+      <c r="G17" s="58" t="s">
         <v>126</v>
-      </c>
-      <c r="G17" s="58" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="B18" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="C18" s="57" t="s">
         <v>128</v>
       </c>
-      <c r="B18" s="56" t="s">
-        <v>110</v>
-      </c>
-      <c r="C18" s="57" t="s">
+      <c r="D18" s="57" t="s">
         <v>129</v>
       </c>
-      <c r="D18" s="57" t="s">
+      <c r="E18" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="E18" s="57" t="s">
+      <c r="F18" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="F18" s="57" t="s">
+      <c r="G18" s="58" t="s">
         <v>132</v>
-      </c>
-      <c r="G18" s="58" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A19" s="53" t="s">
+        <v>133</v>
+      </c>
+      <c r="B19" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="B19" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="57" t="s">
+      <c r="D19" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="D19" s="57" t="s">
+      <c r="E19" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="E19" s="57" t="s">
+      <c r="F19" s="57" t="s">
         <v>137</v>
       </c>
-      <c r="F19" s="57" t="s">
+      <c r="G19" s="58" t="s">
         <v>138</v>
-      </c>
-      <c r="G19" s="58" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A20" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="B20" s="56" t="s">
         <v>140</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="C20" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="C20" s="57" t="s">
+      <c r="D20" s="57" t="s">
         <v>142</v>
       </c>
-      <c r="D20" s="57" t="s">
+      <c r="E20" s="57" t="s">
         <v>143</v>
       </c>
-      <c r="E20" s="57" t="s">
+      <c r="F20" s="57" t="s">
         <v>144</v>
       </c>
-      <c r="F20" s="57" t="s">
+      <c r="G20" s="58" t="s">
         <v>145</v>
-      </c>
-      <c r="G20" s="58" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A21" s="53" t="s">
+        <v>146</v>
+      </c>
+      <c r="B21" s="56" t="s">
         <v>147</v>
       </c>
-      <c r="B21" s="56" t="s">
+      <c r="C21" s="57" t="s">
         <v>148</v>
       </c>
-      <c r="C21" s="57" t="s">
+      <c r="D21" s="57" t="s">
         <v>149</v>
       </c>
-      <c r="D21" s="57" t="s">
+      <c r="E21" s="57" t="s">
         <v>150</v>
       </c>
-      <c r="E21" s="57" t="s">
+      <c r="F21" s="57" t="s">
         <v>151</v>
       </c>
-      <c r="F21" s="57" t="s">
+      <c r="G21" s="58" t="s">
         <v>152</v>
-      </c>
-      <c r="G21" s="58" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A22" s="53" t="s">
+        <v>153</v>
+      </c>
+      <c r="B22" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="C22" s="57" t="s">
         <v>154</v>
       </c>
-      <c r="B22" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="C22" s="57" t="s">
+      <c r="D22" s="57" t="s">
         <v>155</v>
       </c>
-      <c r="D22" s="57" t="s">
+      <c r="E22" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="E22" s="57" t="s">
+      <c r="F22" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="F22" s="57" t="s">
+      <c r="G22" s="58" t="s">
         <v>158</v>
-      </c>
-      <c r="G22" s="58" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A23" s="53" t="s">
+        <v>159</v>
+      </c>
+      <c r="B23" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="C23" s="57" t="s">
         <v>160</v>
       </c>
-      <c r="B23" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="C23" s="57" t="s">
+      <c r="D23" s="57" t="s">
         <v>161</v>
       </c>
-      <c r="D23" s="57" t="s">
+      <c r="E23" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="E23" s="57" t="s">
+      <c r="F23" s="57" t="s">
         <v>163</v>
       </c>
-      <c r="F23" s="57" t="s">
+      <c r="G23" s="58" t="s">
         <v>164</v>
-      </c>
-      <c r="G23" s="58" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A24" s="53" t="s">
+        <v>165</v>
+      </c>
+      <c r="B24" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="C24" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="B24" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="C24" s="57" t="s">
+      <c r="D24" s="57" t="s">
         <v>167</v>
       </c>
-      <c r="D24" s="57" t="s">
+      <c r="E24" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="E24" s="57" t="s">
+      <c r="F24" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="F24" s="57" t="s">
+      <c r="G24" s="58" t="s">
         <v>170</v>
-      </c>
-      <c r="G24" s="58" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A25" s="53" t="s">
+        <v>171</v>
+      </c>
+      <c r="B25" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="57" t="s">
         <v>172</v>
       </c>
-      <c r="B25" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="C25" s="57" t="s">
+      <c r="D25" s="57" t="s">
         <v>173</v>
       </c>
-      <c r="D25" s="57" t="s">
+      <c r="E25" s="57" t="s">
         <v>174</v>
       </c>
-      <c r="E25" s="57" t="s">
+      <c r="F25" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="F25" s="57" t="s">
+      <c r="G25" s="58" t="s">
         <v>176</v>
-      </c>
-      <c r="G25" s="58" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A26" s="53" t="s">
+        <v>177</v>
+      </c>
+      <c r="B26" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="C26" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="B26" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="C26" s="57" t="s">
+      <c r="D26" s="57" t="s">
         <v>179</v>
       </c>
-      <c r="D26" s="57" t="s">
+      <c r="E26" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="E26" s="57" t="s">
+      <c r="F26" s="57" t="s">
         <v>181</v>
       </c>
-      <c r="F26" s="57" t="s">
+      <c r="G26" s="58" t="s">
         <v>182</v>
-      </c>
-      <c r="G26" s="58" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A27" s="53" t="s">
+        <v>183</v>
+      </c>
+      <c r="B27" s="56" t="s">
         <v>184</v>
       </c>
-      <c r="B27" s="56" t="s">
+      <c r="C27" s="57" t="s">
         <v>185</v>
       </c>
-      <c r="C27" s="57" t="s">
+      <c r="D27" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="D27" s="57" t="s">
+      <c r="E27" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="E27" s="57" t="s">
+      <c r="F27" s="57" t="s">
         <v>188</v>
       </c>
-      <c r="F27" s="57" t="s">
+      <c r="G27" s="58" t="s">
         <v>189</v>
-      </c>
-      <c r="G27" s="58" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A28" s="53" t="s">
+        <v>190</v>
+      </c>
+      <c r="B28" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="C28" s="57" t="s">
         <v>191</v>
       </c>
-      <c r="B28" s="56" t="s">
-        <v>185</v>
-      </c>
-      <c r="C28" s="57" t="s">
+      <c r="D28" s="57" t="s">
         <v>192</v>
       </c>
-      <c r="D28" s="57" t="s">
+      <c r="E28" s="57" t="s">
         <v>193</v>
       </c>
-      <c r="E28" s="57" t="s">
+      <c r="F28" s="57" t="s">
         <v>194</v>
       </c>
-      <c r="F28" s="57" t="s">
+      <c r="G28" s="58" t="s">
         <v>195</v>
-      </c>
-      <c r="G28" s="58" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="53" t="s">
+        <v>196</v>
+      </c>
+      <c r="B29" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="C29" s="57" t="s">
         <v>197</v>
       </c>
-      <c r="B29" s="56" t="s">
-        <v>185</v>
-      </c>
-      <c r="C29" s="57" t="s">
+      <c r="D29" s="57" t="s">
         <v>198</v>
       </c>
-      <c r="D29" s="57" t="s">
+      <c r="E29" s="57" t="s">
         <v>199</v>
       </c>
-      <c r="E29" s="57" t="s">
+      <c r="F29" s="57" t="s">
         <v>200</v>
       </c>
-      <c r="F29" s="57" t="s">
+      <c r="G29" s="58" t="s">
         <v>201</v>
-      </c>
-      <c r="G29" s="58" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A30" s="53" t="s">
+        <v>202</v>
+      </c>
+      <c r="B30" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="C30" s="57" t="s">
         <v>203</v>
       </c>
-      <c r="B30" s="56" t="s">
-        <v>185</v>
-      </c>
-      <c r="C30" s="57" t="s">
+      <c r="D30" s="57" t="s">
         <v>204</v>
       </c>
-      <c r="D30" s="57" t="s">
+      <c r="E30" s="57" t="s">
         <v>205</v>
       </c>
-      <c r="E30" s="57" t="s">
+      <c r="F30" s="57" t="s">
         <v>206</v>
       </c>
-      <c r="F30" s="57" t="s">
+      <c r="G30" s="58" t="s">
         <v>207</v>
-      </c>
-      <c r="G30" s="58" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A31" s="53" t="s">
+        <v>208</v>
+      </c>
+      <c r="B31" s="56" t="s">
         <v>209</v>
       </c>
-      <c r="B31" s="56" t="s">
+      <c r="C31" s="57" t="s">
         <v>210</v>
       </c>
-      <c r="C31" s="57" t="s">
+      <c r="D31" s="57" t="s">
         <v>211</v>
       </c>
-      <c r="D31" s="57" t="s">
+      <c r="E31" s="57" t="s">
         <v>212</v>
       </c>
-      <c r="E31" s="57" t="s">
+      <c r="F31" s="57" t="s">
         <v>213</v>
       </c>
-      <c r="F31" s="57" t="s">
+      <c r="G31" s="58" t="s">
         <v>214</v>
-      </c>
-      <c r="G31" s="58" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="32" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A32" s="53" t="s">
+        <v>215</v>
+      </c>
+      <c r="B32" s="56" t="s">
         <v>216</v>
       </c>
-      <c r="B32" s="56" t="s">
+      <c r="C32" s="57" t="s">
         <v>217</v>
       </c>
-      <c r="C32" s="57" t="s">
+      <c r="D32" s="57" t="s">
         <v>218</v>
       </c>
-      <c r="D32" s="57" t="s">
+      <c r="E32" s="57" t="s">
         <v>219</v>
       </c>
-      <c r="E32" s="57" t="s">
+      <c r="F32" s="57" t="s">
         <v>220</v>
       </c>
-      <c r="F32" s="57" t="s">
+      <c r="G32" s="58" t="s">
         <v>221</v>
-      </c>
-      <c r="G32" s="58" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="33" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A33" s="53" t="s">
+        <v>222</v>
+      </c>
+      <c r="B33" s="56" t="s">
         <v>223</v>
       </c>
-      <c r="B33" s="56" t="s">
+      <c r="C33" s="57" t="s">
         <v>224</v>
       </c>
-      <c r="C33" s="57" t="s">
+      <c r="D33" s="57" t="s">
         <v>225</v>
       </c>
-      <c r="D33" s="57" t="s">
+      <c r="E33" s="57" t="s">
         <v>226</v>
       </c>
-      <c r="E33" s="57" t="s">
+      <c r="F33" s="57" t="s">
         <v>227</v>
       </c>
-      <c r="F33" s="57" t="s">
+      <c r="G33" s="58" t="s">
         <v>228</v>
-      </c>
-      <c r="G33" s="58" t="s">
-        <v>229</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A34" s="53" t="s">
+        <v>229</v>
+      </c>
+      <c r="B34" s="56" t="s">
         <v>230</v>
       </c>
-      <c r="B34" s="56" t="s">
+      <c r="C34" s="57" t="s">
         <v>231</v>
       </c>
-      <c r="C34" s="57" t="s">
+      <c r="D34" s="57" t="s">
         <v>232</v>
       </c>
-      <c r="D34" s="57" t="s">
+      <c r="E34" s="57" t="s">
         <v>233</v>
       </c>
-      <c r="E34" s="57" t="s">
+      <c r="F34" s="57" t="s">
         <v>234</v>
       </c>
-      <c r="F34" s="57" t="s">
+      <c r="G34" s="58" t="s">
         <v>235</v>
-      </c>
-      <c r="G34" s="58" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A35" s="53" t="s">
+        <v>236</v>
+      </c>
+      <c r="B35" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="C35" s="57" t="s">
         <v>237</v>
       </c>
-      <c r="B35" s="56" t="s">
-        <v>231</v>
-      </c>
-      <c r="C35" s="57" t="s">
+      <c r="D35" s="57" t="s">
         <v>238</v>
       </c>
-      <c r="D35" s="57" t="s">
+      <c r="E35" s="57" t="s">
         <v>239</v>
       </c>
-      <c r="E35" s="57" t="s">
+      <c r="F35" s="57" t="s">
         <v>240</v>
       </c>
-      <c r="F35" s="57" t="s">
+      <c r="G35" s="58" t="s">
         <v>241</v>
-      </c>
-      <c r="G35" s="58" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A36" s="53" t="s">
+        <v>242</v>
+      </c>
+      <c r="B36" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="C36" s="57" t="s">
         <v>243</v>
       </c>
-      <c r="B36" s="56" t="s">
-        <v>231</v>
-      </c>
-      <c r="C36" s="57" t="s">
+      <c r="D36" s="57" t="s">
         <v>244</v>
       </c>
-      <c r="D36" s="57" t="s">
+      <c r="E36" s="57" t="s">
         <v>245</v>
       </c>
-      <c r="E36" s="57" t="s">
+      <c r="F36" s="57" t="s">
         <v>246</v>
       </c>
-      <c r="F36" s="57" t="s">
+      <c r="G36" s="58" t="s">
         <v>247</v>
-      </c>
-      <c r="G36" s="58" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A37" s="53" t="s">
+        <v>248</v>
+      </c>
+      <c r="B37" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="C37" s="57" t="s">
         <v>249</v>
       </c>
-      <c r="B37" s="56" t="s">
-        <v>231</v>
-      </c>
-      <c r="C37" s="57" t="s">
+      <c r="D37" s="57" t="s">
         <v>250</v>
       </c>
-      <c r="D37" s="57" t="s">
+      <c r="E37" s="57" t="s">
         <v>251</v>
       </c>
-      <c r="E37" s="57" t="s">
+      <c r="F37" s="57" t="s">
         <v>252</v>
       </c>
-      <c r="F37" s="57" t="s">
+      <c r="G37" s="58" t="s">
         <v>253</v>
-      </c>
-      <c r="G37" s="58" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A38" s="53" t="s">
+        <v>254</v>
+      </c>
+      <c r="B38" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="C38" s="57" t="s">
         <v>255</v>
       </c>
-      <c r="B38" s="56" t="s">
-        <v>231</v>
-      </c>
-      <c r="C38" s="57" t="s">
+      <c r="D38" s="57" t="s">
         <v>256</v>
       </c>
-      <c r="D38" s="57" t="s">
+      <c r="E38" s="57" t="s">
         <v>257</v>
       </c>
-      <c r="E38" s="57" t="s">
+      <c r="F38" s="57" t="s">
         <v>258</v>
       </c>
-      <c r="F38" s="57" t="s">
+      <c r="G38" s="58" t="s">
         <v>259</v>
-      </c>
-      <c r="G38" s="58" t="s">
-        <v>260</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A39" s="53" t="s">
+        <v>260</v>
+      </c>
+      <c r="B39" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="C39" s="57" t="s">
         <v>261</v>
       </c>
-      <c r="B39" s="56" t="s">
-        <v>231</v>
-      </c>
-      <c r="C39" s="57" t="s">
+      <c r="D39" s="57" t="s">
         <v>262</v>
       </c>
-      <c r="D39" s="57" t="s">
+      <c r="E39" s="57" t="s">
         <v>263</v>
       </c>
-      <c r="E39" s="57" t="s">
+      <c r="F39" s="57" t="s">
         <v>264</v>
       </c>
-      <c r="F39" s="57" t="s">
+      <c r="G39" s="58" t="s">
         <v>265</v>
-      </c>
-      <c r="G39" s="58" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A40" s="53" t="s">
+        <v>266</v>
+      </c>
+      <c r="B40" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="C40" s="57" t="s">
         <v>267</v>
       </c>
-      <c r="B40" s="56" t="s">
-        <v>231</v>
-      </c>
-      <c r="C40" s="57" t="s">
+      <c r="D40" s="57" t="s">
         <v>268</v>
       </c>
-      <c r="D40" s="57" t="s">
+      <c r="E40" s="57" t="s">
         <v>269</v>
       </c>
-      <c r="E40" s="57" t="s">
+      <c r="F40" s="57" t="s">
         <v>270</v>
       </c>
-      <c r="F40" s="57" t="s">
+      <c r="G40" s="58" t="s">
         <v>271</v>
-      </c>
-      <c r="G40" s="58" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A41" s="53" t="s">
+        <v>272</v>
+      </c>
+      <c r="B41" s="56" t="s">
         <v>273</v>
       </c>
-      <c r="B41" s="56" t="s">
+      <c r="C41" s="57" t="s">
         <v>274</v>
       </c>
-      <c r="C41" s="57" t="s">
+      <c r="D41" s="57" t="s">
         <v>275</v>
       </c>
-      <c r="D41" s="57" t="s">
+      <c r="E41" s="57" t="s">
         <v>276</v>
       </c>
-      <c r="E41" s="57" t="s">
+      <c r="F41" s="57" t="s">
         <v>277</v>
       </c>
-      <c r="F41" s="57" t="s">
+      <c r="G41" s="58" t="s">
         <v>278</v>
-      </c>
-      <c r="G41" s="58" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A42" s="53" t="s">
+        <v>279</v>
+      </c>
+      <c r="B42" s="56" t="s">
         <v>280</v>
       </c>
-      <c r="B42" s="56" t="s">
+      <c r="C42" s="57" t="s">
         <v>281</v>
       </c>
-      <c r="C42" s="57" t="s">
+      <c r="D42" s="57" t="s">
         <v>282</v>
       </c>
-      <c r="D42" s="57" t="s">
+      <c r="E42" s="57" t="s">
         <v>283</v>
       </c>
-      <c r="E42" s="57" t="s">
+      <c r="F42" s="57" t="s">
         <v>284</v>
       </c>
-      <c r="F42" s="57" t="s">
+      <c r="G42" s="58" t="s">
         <v>285</v>
-      </c>
-      <c r="G42" s="58" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A43" s="53" t="s">
+        <v>286</v>
+      </c>
+      <c r="B43" s="56" t="s">
+        <v>280</v>
+      </c>
+      <c r="C43" s="57" t="s">
         <v>287</v>
       </c>
-      <c r="B43" s="56" t="s">
-        <v>281</v>
-      </c>
-      <c r="C43" s="57" t="s">
+      <c r="D43" s="57" t="s">
         <v>288</v>
       </c>
-      <c r="D43" s="57" t="s">
+      <c r="E43" s="57" t="s">
         <v>289</v>
       </c>
-      <c r="E43" s="57" t="s">
+      <c r="F43" s="57" t="s">
         <v>290</v>
       </c>
-      <c r="F43" s="57" t="s">
+      <c r="G43" s="58" t="s">
         <v>291</v>
-      </c>
-      <c r="G43" s="58" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A44" s="53" t="s">
+        <v>292</v>
+      </c>
+      <c r="B44" s="56" t="s">
+        <v>280</v>
+      </c>
+      <c r="C44" s="57" t="s">
         <v>293</v>
       </c>
-      <c r="B44" s="56" t="s">
-        <v>281</v>
-      </c>
-      <c r="C44" s="57" t="s">
+      <c r="D44" s="57" t="s">
         <v>294</v>
       </c>
-      <c r="D44" s="57" t="s">
+      <c r="E44" s="57" t="s">
         <v>295</v>
       </c>
-      <c r="E44" s="57" t="s">
+      <c r="F44" s="57" t="s">
         <v>296</v>
       </c>
-      <c r="F44" s="57" t="s">
+      <c r="G44" s="58" t="s">
         <v>297</v>
-      </c>
-      <c r="G44" s="58" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A45" s="53" t="s">
+        <v>298</v>
+      </c>
+      <c r="B45" s="56" t="s">
+        <v>280</v>
+      </c>
+      <c r="C45" s="57" t="s">
         <v>299</v>
       </c>
-      <c r="B45" s="56" t="s">
-        <v>281</v>
-      </c>
-      <c r="C45" s="57" t="s">
+      <c r="D45" s="57" t="s">
         <v>300</v>
       </c>
-      <c r="D45" s="57" t="s">
+      <c r="E45" s="57" t="s">
         <v>301</v>
       </c>
-      <c r="E45" s="57" t="s">
+      <c r="F45" s="57" t="s">
         <v>302</v>
       </c>
-      <c r="F45" s="57" t="s">
+      <c r="G45" s="58" t="s">
         <v>303</v>
-      </c>
-      <c r="G45" s="58" t="s">
-        <v>304</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A46" s="53" t="s">
+        <v>304</v>
+      </c>
+      <c r="B46" s="56" t="s">
         <v>305</v>
       </c>
-      <c r="B46" s="56" t="s">
+      <c r="C46" s="57" t="s">
         <v>306</v>
       </c>
-      <c r="C46" s="57" t="s">
+      <c r="D46" s="57" t="s">
         <v>307</v>
       </c>
-      <c r="D46" s="57" t="s">
+      <c r="E46" s="57" t="s">
         <v>308</v>
       </c>
-      <c r="E46" s="57" t="s">
+      <c r="F46" s="57" t="s">
         <v>309</v>
       </c>
-      <c r="F46" s="57" t="s">
+      <c r="G46" s="58" t="s">
         <v>310</v>
-      </c>
-      <c r="G46" s="58" t="s">
-        <v>311</v>
       </c>
     </row>
     <row r="47" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A47" s="53" t="s">
+        <v>311</v>
+      </c>
+      <c r="B47" s="56" t="s">
+        <v>305</v>
+      </c>
+      <c r="C47" s="57" t="s">
         <v>312</v>
       </c>
-      <c r="B47" s="56" t="s">
-        <v>306</v>
-      </c>
-      <c r="C47" s="57" t="s">
+      <c r="D47" s="57" t="s">
         <v>313</v>
       </c>
-      <c r="D47" s="57" t="s">
+      <c r="E47" s="57" t="s">
         <v>314</v>
       </c>
-      <c r="E47" s="57" t="s">
+      <c r="F47" s="57" t="s">
         <v>315</v>
       </c>
-      <c r="F47" s="57" t="s">
+      <c r="G47" s="58" t="s">
         <v>316</v>
-      </c>
-      <c r="G47" s="58" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="48" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A48" s="53" t="s">
+        <v>317</v>
+      </c>
+      <c r="B48" s="56" t="s">
+        <v>305</v>
+      </c>
+      <c r="C48" s="57" t="s">
         <v>318</v>
       </c>
-      <c r="B48" s="56" t="s">
-        <v>306</v>
-      </c>
-      <c r="C48" s="57" t="s">
+      <c r="D48" s="57" t="s">
         <v>319</v>
       </c>
-      <c r="D48" s="57" t="s">
+      <c r="E48" s="57" t="s">
         <v>320</v>
       </c>
-      <c r="E48" s="57" t="s">
+      <c r="F48" s="57" t="s">
         <v>321</v>
       </c>
-      <c r="F48" s="57" t="s">
+      <c r="G48" s="58" t="s">
         <v>322</v>
-      </c>
-      <c r="G48" s="58" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="49" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A49" s="53" t="s">
+        <v>323</v>
+      </c>
+      <c r="B49" s="56" t="s">
+        <v>305</v>
+      </c>
+      <c r="C49" s="57" t="s">
         <v>324</v>
       </c>
-      <c r="B49" s="56" t="s">
-        <v>306</v>
-      </c>
-      <c r="C49" s="57" t="s">
+      <c r="D49" s="57" t="s">
         <v>325</v>
       </c>
-      <c r="D49" s="57" t="s">
+      <c r="E49" s="57" t="s">
         <v>326</v>
       </c>
-      <c r="E49" s="57" t="s">
+      <c r="F49" s="57" t="s">
         <v>327</v>
       </c>
-      <c r="F49" s="57" t="s">
+      <c r="G49" s="58" t="s">
         <v>328</v>
-      </c>
-      <c r="G49" s="58" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A50" s="53" t="s">
+        <v>329</v>
+      </c>
+      <c r="B50" s="56" t="s">
+        <v>280</v>
+      </c>
+      <c r="C50" s="57" t="s">
         <v>330</v>
       </c>
-      <c r="B50" s="56" t="s">
-        <v>281</v>
-      </c>
-      <c r="C50" s="57" t="s">
+      <c r="D50" s="57" t="s">
         <v>331</v>
       </c>
-      <c r="D50" s="57" t="s">
+      <c r="E50" s="57" t="s">
         <v>332</v>
       </c>
-      <c r="E50" s="57" t="s">
+      <c r="F50" s="57" t="s">
         <v>333</v>
       </c>
-      <c r="F50" s="57" t="s">
+      <c r="G50" s="58" t="s">
         <v>334</v>
-      </c>
-      <c r="G50" s="58" t="s">
-        <v>335</v>
       </c>
     </row>
     <row r="51" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A51" s="53" t="s">
+        <v>335</v>
+      </c>
+      <c r="B51" s="56" t="s">
         <v>336</v>
       </c>
-      <c r="B51" s="56" t="s">
+      <c r="C51" s="57" t="s">
         <v>337</v>
       </c>
-      <c r="C51" s="57" t="s">
+      <c r="D51" s="57" t="s">
         <v>338</v>
       </c>
-      <c r="D51" s="57" t="s">
+      <c r="E51" s="57" t="s">
         <v>339</v>
       </c>
-      <c r="E51" s="57" t="s">
+      <c r="F51" s="57" t="s">
         <v>340</v>
       </c>
-      <c r="F51" s="57" t="s">
+      <c r="G51" s="58" t="s">
         <v>341</v>
-      </c>
-      <c r="G51" s="58" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="52" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A52" s="53" t="s">
+        <v>342</v>
+      </c>
+      <c r="B52" s="56" t="s">
         <v>343</v>
       </c>
-      <c r="B52" s="56" t="s">
+      <c r="C52" s="57" t="s">
         <v>344</v>
       </c>
-      <c r="C52" s="57" t="s">
+      <c r="D52" s="57" t="s">
         <v>345</v>
       </c>
-      <c r="D52" s="57" t="s">
+      <c r="E52" s="57" t="s">
         <v>346</v>
       </c>
-      <c r="E52" s="57" t="s">
+      <c r="F52" s="57" t="s">
         <v>347</v>
       </c>
-      <c r="F52" s="57" t="s">
+      <c r="G52" s="58" t="s">
         <v>348</v>
-      </c>
-      <c r="G52" s="58" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="53" t="s">
+        <v>349</v>
+      </c>
+      <c r="B53" s="56" t="s">
+        <v>343</v>
+      </c>
+      <c r="C53" s="57" t="s">
         <v>350</v>
       </c>
-      <c r="B53" s="56" t="s">
-        <v>344</v>
-      </c>
-      <c r="C53" s="57" t="s">
+      <c r="D53" s="57" t="s">
         <v>351</v>
       </c>
-      <c r="D53" s="57" t="s">
+      <c r="E53" s="57" t="s">
         <v>352</v>
       </c>
-      <c r="E53" s="57" t="s">
+      <c r="F53" s="57" t="s">
         <v>353</v>
       </c>
-      <c r="F53" s="57" t="s">
+      <c r="G53" s="58" t="s">
         <v>354</v>
-      </c>
-      <c r="G53" s="58" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="54" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A54" s="53" t="s">
+        <v>355</v>
+      </c>
+      <c r="B54" s="56" t="s">
+        <v>343</v>
+      </c>
+      <c r="C54" s="57" t="s">
         <v>356</v>
       </c>
-      <c r="B54" s="56" t="s">
-        <v>344</v>
-      </c>
-      <c r="C54" s="57" t="s">
+      <c r="D54" s="57" t="s">
         <v>357</v>
       </c>
-      <c r="D54" s="57" t="s">
+      <c r="E54" s="57" t="s">
         <v>358</v>
       </c>
-      <c r="E54" s="57" t="s">
+      <c r="F54" s="57" t="s">
         <v>359</v>
       </c>
-      <c r="F54" s="57" t="s">
+      <c r="G54" s="58" t="s">
         <v>360</v>
-      </c>
-      <c r="G54" s="58" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="55" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="53" t="s">
+        <v>361</v>
+      </c>
+      <c r="B55" s="56" t="s">
+        <v>343</v>
+      </c>
+      <c r="C55" s="57" t="s">
         <v>362</v>
       </c>
-      <c r="B55" s="56" t="s">
-        <v>344</v>
-      </c>
-      <c r="C55" s="57" t="s">
+      <c r="D55" s="57" t="s">
         <v>363</v>
       </c>
-      <c r="D55" s="57" t="s">
+      <c r="E55" s="57" t="s">
         <v>364</v>
       </c>
-      <c r="E55" s="57" t="s">
+      <c r="F55" s="57" t="s">
         <v>365</v>
       </c>
-      <c r="F55" s="57" t="s">
+      <c r="G55" s="58" t="s">
         <v>366</v>
-      </c>
-      <c r="G55" s="58" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A56" s="53" t="s">
+        <v>367</v>
+      </c>
+      <c r="B56" s="56" t="s">
+        <v>343</v>
+      </c>
+      <c r="C56" s="57" t="s">
         <v>368</v>
       </c>
-      <c r="B56" s="56" t="s">
-        <v>344</v>
-      </c>
-      <c r="C56" s="57" t="s">
+      <c r="D56" s="57" t="s">
         <v>369</v>
       </c>
-      <c r="D56" s="57" t="s">
+      <c r="E56" s="57" t="s">
         <v>370</v>
       </c>
-      <c r="E56" s="57" t="s">
+      <c r="F56" s="57" t="s">
         <v>371</v>
       </c>
-      <c r="F56" s="57" t="s">
+      <c r="G56" s="58" t="s">
         <v>372</v>
-      </c>
-      <c r="G56" s="58" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="57" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A57" s="53" t="s">
+        <v>373</v>
+      </c>
+      <c r="B57" s="56" t="s">
+        <v>343</v>
+      </c>
+      <c r="C57" s="57" t="s">
         <v>374</v>
       </c>
-      <c r="B57" s="56" t="s">
-        <v>344</v>
-      </c>
-      <c r="C57" s="57" t="s">
+      <c r="D57" s="57" t="s">
         <v>375</v>
       </c>
-      <c r="D57" s="57" t="s">
+      <c r="E57" s="57" t="s">
         <v>376</v>
       </c>
-      <c r="E57" s="57" t="s">
+      <c r="F57" s="57" t="s">
         <v>377</v>
       </c>
-      <c r="F57" s="57" t="s">
+      <c r="G57" s="58" t="s">
         <v>378</v>
-      </c>
-      <c r="G57" s="58" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="58" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A58" s="53" t="s">
+        <v>379</v>
+      </c>
+      <c r="B58" s="56" t="s">
         <v>380</v>
       </c>
-      <c r="B58" s="56" t="s">
+      <c r="C58" s="57" t="s">
         <v>381</v>
       </c>
-      <c r="C58" s="57" t="s">
+      <c r="D58" s="57" t="s">
         <v>382</v>
       </c>
-      <c r="D58" s="57" t="s">
+      <c r="E58" s="57" t="s">
         <v>383</v>
       </c>
-      <c r="E58" s="57" t="s">
+      <c r="F58" s="57" t="s">
         <v>384</v>
       </c>
-      <c r="F58" s="57" t="s">
+      <c r="G58" s="58" t="s">
         <v>385</v>
-      </c>
-      <c r="G58" s="58" t="s">
-        <v>386</v>
       </c>
     </row>
     <row r="59" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A59" s="53" t="s">
+        <v>386</v>
+      </c>
+      <c r="B59" s="56" t="s">
+        <v>380</v>
+      </c>
+      <c r="C59" s="57" t="s">
         <v>387</v>
       </c>
-      <c r="B59" s="56" t="s">
-        <v>381</v>
-      </c>
-      <c r="C59" s="57" t="s">
+      <c r="D59" s="57" t="s">
         <v>388</v>
       </c>
-      <c r="D59" s="57" t="s">
+      <c r="E59" s="57" t="s">
         <v>389</v>
       </c>
-      <c r="E59" s="57" t="s">
+      <c r="F59" s="57" t="s">
         <v>390</v>
       </c>
-      <c r="F59" s="57" t="s">
+      <c r="G59" s="58" t="s">
         <v>391</v>
-      </c>
-      <c r="G59" s="58" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="60" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A60" s="53" t="s">
+        <v>392</v>
+      </c>
+      <c r="B60" s="56" t="s">
+        <v>380</v>
+      </c>
+      <c r="C60" s="57" t="s">
         <v>393</v>
       </c>
-      <c r="B60" s="56" t="s">
-        <v>381</v>
-      </c>
-      <c r="C60" s="57" t="s">
+      <c r="D60" s="57" t="s">
         <v>394</v>
       </c>
-      <c r="D60" s="57" t="s">
+      <c r="E60" s="57" t="s">
         <v>395</v>
       </c>
-      <c r="E60" s="57" t="s">
+      <c r="F60" s="57" t="s">
         <v>396</v>
       </c>
-      <c r="F60" s="57" t="s">
+      <c r="G60" s="58" t="s">
         <v>397</v>
-      </c>
-      <c r="G60" s="58" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="61" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="53" t="s">
+        <v>398</v>
+      </c>
+      <c r="B61" s="56" t="s">
+        <v>380</v>
+      </c>
+      <c r="C61" s="57" t="s">
         <v>399</v>
       </c>
-      <c r="B61" s="56" t="s">
-        <v>381</v>
-      </c>
-      <c r="C61" s="57" t="s">
+      <c r="D61" s="57" t="s">
         <v>400</v>
       </c>
-      <c r="D61" s="57" t="s">
+      <c r="E61" s="57" t="s">
         <v>401</v>
       </c>
-      <c r="E61" s="57" t="s">
+      <c r="F61" s="57" t="s">
         <v>402</v>
       </c>
-      <c r="F61" s="57" t="s">
+      <c r="G61" s="58" t="s">
         <v>403</v>
-      </c>
-      <c r="G61" s="58" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="62" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A62" s="53" t="s">
+        <v>404</v>
+      </c>
+      <c r="B62" s="56" t="s">
         <v>405</v>
       </c>
-      <c r="B62" s="56" t="s">
+      <c r="C62" s="57" t="s">
         <v>406</v>
       </c>
-      <c r="C62" s="57" t="s">
+      <c r="D62" s="57" t="s">
         <v>407</v>
       </c>
-      <c r="D62" s="57" t="s">
+      <c r="E62" s="57" t="s">
         <v>408</v>
       </c>
-      <c r="E62" s="57" t="s">
+      <c r="F62" s="57" t="s">
         <v>409</v>
       </c>
-      <c r="F62" s="57" t="s">
+      <c r="G62" s="58" t="s">
         <v>410</v>
-      </c>
-      <c r="G62" s="58" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="63" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A63" s="53" t="s">
+        <v>411</v>
+      </c>
+      <c r="B63" s="56" t="s">
         <v>412</v>
       </c>
-      <c r="B63" s="56" t="s">
+      <c r="C63" s="57" t="s">
         <v>413</v>
       </c>
-      <c r="C63" s="57" t="s">
+      <c r="D63" s="57" t="s">
         <v>414</v>
       </c>
-      <c r="D63" s="57" t="s">
+      <c r="E63" s="57" t="s">
         <v>415</v>
       </c>
-      <c r="E63" s="57" t="s">
+      <c r="F63" s="57" t="s">
         <v>416</v>
       </c>
-      <c r="F63" s="57" t="s">
+      <c r="G63" s="58" t="s">
         <v>417</v>
-      </c>
-      <c r="G63" s="58" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="64" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A64" s="53" t="s">
+        <v>418</v>
+      </c>
+      <c r="B64" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="C64" s="57" t="s">
         <v>419</v>
       </c>
-      <c r="B64" s="56" t="s">
-        <v>406</v>
-      </c>
-      <c r="C64" s="57" t="s">
+      <c r="D64" s="57" t="s">
         <v>420</v>
       </c>
-      <c r="D64" s="57" t="s">
+      <c r="E64" s="57" t="s">
         <v>421</v>
       </c>
-      <c r="E64" s="57" t="s">
+      <c r="F64" s="57" t="s">
         <v>422</v>
       </c>
-      <c r="F64" s="57" t="s">
+      <c r="G64" s="58" t="s">
         <v>423</v>
-      </c>
-      <c r="G64" s="58" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A65" s="53" t="s">
+        <v>424</v>
+      </c>
+      <c r="B65" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C65" s="57" t="s">
         <v>425</v>
       </c>
-      <c r="B65" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="C65" s="57" t="s">
+      <c r="D65" s="57" t="s">
         <v>426</v>
       </c>
-      <c r="D65" s="57" t="s">
+      <c r="E65" s="57" t="s">
         <v>427</v>
       </c>
-      <c r="E65" s="57" t="s">
+      <c r="F65" s="57" t="s">
         <v>428</v>
       </c>
-      <c r="F65" s="57" t="s">
+      <c r="G65" s="58" t="s">
         <v>429</v>
-      </c>
-      <c r="G65" s="58" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="66" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A66" s="53" t="s">
+        <v>430</v>
+      </c>
+      <c r="B66" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="C66" s="57" t="s">
         <v>431</v>
       </c>
-      <c r="B66" s="56" t="s">
-        <v>231</v>
-      </c>
-      <c r="C66" s="57" t="s">
+      <c r="D66" s="57" t="s">
         <v>432</v>
       </c>
-      <c r="D66" s="57" t="s">
+      <c r="E66" s="57" t="s">
         <v>433</v>
       </c>
-      <c r="E66" s="57" t="s">
+      <c r="F66" s="57" t="s">
         <v>434</v>
       </c>
-      <c r="F66" s="57" t="s">
+      <c r="G66" s="58" t="s">
         <v>435</v>
-      </c>
-      <c r="G66" s="58" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="67" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A67" s="53" t="s">
+        <v>436</v>
+      </c>
+      <c r="B67" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C67" s="57" t="s">
+        <v>425</v>
+      </c>
+      <c r="D67" s="57" t="s">
         <v>437</v>
       </c>
-      <c r="B67" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="C67" s="57" t="s">
-        <v>426</v>
-      </c>
-      <c r="D67" s="57" t="s">
+      <c r="E67" s="57" t="s">
         <v>438</v>
       </c>
-      <c r="E67" s="57" t="s">
+      <c r="F67" s="57" t="s">
         <v>439</v>
       </c>
-      <c r="F67" s="57" t="s">
+      <c r="G67" s="58" t="s">
         <v>440</v>
-      </c>
-      <c r="G67" s="58" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="68" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A68" s="53" t="s">
+        <v>441</v>
+      </c>
+      <c r="B68" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="C68" s="57" t="s">
+        <v>431</v>
+      </c>
+      <c r="D68" s="57" t="s">
         <v>442</v>
       </c>
-      <c r="B68" s="56" t="s">
-        <v>231</v>
-      </c>
-      <c r="C68" s="57" t="s">
-        <v>432</v>
-      </c>
-      <c r="D68" s="57" t="s">
+      <c r="E68" s="57" t="s">
         <v>443</v>
       </c>
-      <c r="E68" s="57" t="s">
+      <c r="F68" s="57" t="s">
         <v>444</v>
       </c>
-      <c r="F68" s="57" t="s">
+      <c r="G68" s="58" t="s">
         <v>445</v>
-      </c>
-      <c r="G68" s="58" t="s">
-        <v>446</v>
       </c>
     </row>
     <row r="69" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A69" s="53" t="s">
+        <v>446</v>
+      </c>
+      <c r="B69" s="56" t="s">
+        <v>34</v>
+      </c>
+      <c r="C69" s="57" t="s">
+        <v>425</v>
+      </c>
+      <c r="D69" s="57" t="s">
         <v>447</v>
       </c>
-      <c r="B69" s="56" t="s">
-        <v>35</v>
-      </c>
-      <c r="C69" s="57" t="s">
-        <v>426</v>
-      </c>
-      <c r="D69" s="57" t="s">
+      <c r="E69" s="57" t="s">
         <v>448</v>
       </c>
-      <c r="E69" s="57" t="s">
+      <c r="F69" s="57" t="s">
         <v>449</v>
       </c>
-      <c r="F69" s="57" t="s">
+      <c r="G69" s="58" t="s">
         <v>450</v>
-      </c>
-      <c r="G69" s="58" t="s">
-        <v>451</v>
       </c>
     </row>
     <row r="70" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A70" s="53" t="s">
+        <v>451</v>
+      </c>
+      <c r="B70" s="56" t="s">
+        <v>230</v>
+      </c>
+      <c r="C70" s="57" t="s">
+        <v>431</v>
+      </c>
+      <c r="D70" s="57" t="s">
         <v>452</v>
       </c>
-      <c r="B70" s="56" t="s">
-        <v>231</v>
-      </c>
-      <c r="C70" s="57" t="s">
-        <v>432</v>
-      </c>
-      <c r="D70" s="57" t="s">
+      <c r="E70" s="57" t="s">
         <v>453</v>
       </c>
-      <c r="E70" s="57" t="s">
+      <c r="F70" s="57" t="s">
         <v>454</v>
       </c>
-      <c r="F70" s="57" t="s">
+      <c r="G70" s="58" t="s">
         <v>455</v>
-      </c>
-      <c r="G70" s="58" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="71" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A71" s="53" t="s">
+        <v>456</v>
+      </c>
+      <c r="B71" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C71" s="57" t="s">
         <v>457</v>
       </c>
-      <c r="B71" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="C71" s="57" t="s">
+      <c r="D71" s="57" t="s">
         <v>458</v>
       </c>
-      <c r="D71" s="57" t="s">
+      <c r="E71" s="57" t="s">
         <v>459</v>
       </c>
-      <c r="E71" s="57" t="s">
+      <c r="F71" s="57" t="s">
         <v>460</v>
       </c>
-      <c r="F71" s="57" t="s">
+      <c r="G71" s="58" t="s">
         <v>461</v>
-      </c>
-      <c r="G71" s="58" t="s">
-        <v>462</v>
       </c>
     </row>
     <row r="72" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A72" s="53" t="s">
+        <v>462</v>
+      </c>
+      <c r="B72" s="56" t="s">
+        <v>273</v>
+      </c>
+      <c r="C72" s="57" t="s">
         <v>463</v>
       </c>
-      <c r="B72" s="56" t="s">
-        <v>274</v>
-      </c>
-      <c r="C72" s="57" t="s">
+      <c r="D72" s="57" t="s">
         <v>464</v>
       </c>
-      <c r="D72" s="57" t="s">
+      <c r="E72" s="57" t="s">
         <v>465</v>
       </c>
-      <c r="E72" s="57" t="s">
+      <c r="F72" s="57" t="s">
         <v>466</v>
       </c>
-      <c r="F72" s="57" t="s">
+      <c r="G72" s="58" t="s">
         <v>467</v>
-      </c>
-      <c r="G72" s="58" t="s">
-        <v>468</v>
       </c>
     </row>
     <row r="73" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A73" s="53" t="s">
+        <v>468</v>
+      </c>
+      <c r="B73" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C73" s="57" t="s">
         <v>469</v>
       </c>
-      <c r="B73" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="C73" s="57" t="s">
+      <c r="D73" s="57" t="s">
         <v>470</v>
       </c>
-      <c r="D73" s="57" t="s">
+      <c r="E73" s="57" t="s">
         <v>471</v>
       </c>
-      <c r="E73" s="57" t="s">
+      <c r="F73" s="57" t="s">
         <v>472</v>
       </c>
-      <c r="F73" s="57" t="s">
+      <c r="G73" s="58" t="s">
         <v>473</v>
-      </c>
-      <c r="G73" s="58" t="s">
-        <v>474</v>
       </c>
     </row>
     <row r="74" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A74" s="53" t="s">
+        <v>474</v>
+      </c>
+      <c r="B74" s="56" t="s">
+        <v>273</v>
+      </c>
+      <c r="C74" s="57" t="s">
         <v>475</v>
       </c>
-      <c r="B74" s="56" t="s">
-        <v>274</v>
-      </c>
-      <c r="C74" s="57" t="s">
+      <c r="D74" s="57" t="s">
         <v>476</v>
       </c>
-      <c r="D74" s="57" t="s">
+      <c r="E74" s="57" t="s">
         <v>477</v>
       </c>
-      <c r="E74" s="57" t="s">
+      <c r="F74" s="57" t="s">
         <v>478</v>
       </c>
-      <c r="F74" s="57" t="s">
+      <c r="G74" s="58" t="s">
         <v>479</v>
-      </c>
-      <c r="G74" s="58" t="s">
-        <v>480</v>
       </c>
     </row>
     <row r="75" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A75" s="53" t="s">
+        <v>480</v>
+      </c>
+      <c r="B75" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C75" s="57" t="s">
         <v>481</v>
       </c>
-      <c r="B75" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="C75" s="57" t="s">
+      <c r="D75" s="57" t="s">
         <v>482</v>
       </c>
-      <c r="D75" s="57" t="s">
+      <c r="E75" s="57" t="s">
         <v>483</v>
       </c>
-      <c r="E75" s="57" t="s">
+      <c r="F75" s="57" t="s">
         <v>484</v>
       </c>
-      <c r="F75" s="57" t="s">
+      <c r="G75" s="58" t="s">
         <v>485</v>
-      </c>
-      <c r="G75" s="58" t="s">
-        <v>486</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A76" s="53" t="s">
+        <v>486</v>
+      </c>
+      <c r="B76" s="56" t="s">
+        <v>273</v>
+      </c>
+      <c r="C76" s="57" t="s">
         <v>487</v>
       </c>
-      <c r="B76" s="56" t="s">
-        <v>274</v>
-      </c>
-      <c r="C76" s="57" t="s">
+      <c r="D76" s="57" t="s">
         <v>488</v>
       </c>
-      <c r="D76" s="57" t="s">
+      <c r="E76" s="57" t="s">
         <v>489</v>
       </c>
-      <c r="E76" s="57" t="s">
+      <c r="F76" s="57" t="s">
         <v>490</v>
       </c>
-      <c r="F76" s="57" t="s">
+      <c r="G76" s="58" t="s">
         <v>491</v>
-      </c>
-      <c r="G76" s="58" t="s">
-        <v>492</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A77" s="53" t="s">
+        <v>492</v>
+      </c>
+      <c r="B77" s="56" t="s">
+        <v>77</v>
+      </c>
+      <c r="C77" s="57" t="s">
+        <v>481</v>
+      </c>
+      <c r="D77" s="57" t="s">
         <v>493</v>
       </c>
-      <c r="B77" s="56" t="s">
-        <v>78</v>
-      </c>
-      <c r="C77" s="57" t="s">
-        <v>482</v>
-      </c>
-      <c r="D77" s="57" t="s">
+      <c r="E77" s="57" t="s">
         <v>494</v>
       </c>
-      <c r="E77" s="57" t="s">
+      <c r="F77" s="57" t="s">
         <v>495</v>
       </c>
-      <c r="F77" s="57" t="s">
+      <c r="G77" s="58" t="s">
         <v>496</v>
-      </c>
-      <c r="G77" s="58" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="78" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A78" s="53" t="s">
+        <v>497</v>
+      </c>
+      <c r="B78" s="56" t="s">
+        <v>273</v>
+      </c>
+      <c r="C78" s="57" t="s">
+        <v>487</v>
+      </c>
+      <c r="D78" s="57" t="s">
         <v>498</v>
       </c>
-      <c r="B78" s="56" t="s">
-        <v>274</v>
-      </c>
-      <c r="C78" s="57" t="s">
-        <v>488</v>
-      </c>
-      <c r="D78" s="57" t="s">
+      <c r="E78" s="57" t="s">
         <v>499</v>
       </c>
-      <c r="E78" s="57" t="s">
+      <c r="F78" s="57" t="s">
         <v>500</v>
       </c>
-      <c r="F78" s="57" t="s">
+      <c r="G78" s="58" t="s">
         <v>501</v>
-      </c>
-      <c r="G78" s="58" t="s">
-        <v>502</v>
       </c>
     </row>
     <row r="79" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A79" s="53" t="s">
+        <v>502</v>
+      </c>
+      <c r="B79" s="56" t="s">
         <v>503</v>
       </c>
-      <c r="B79" s="56" t="s">
+      <c r="C79" s="57" t="s">
         <v>504</v>
       </c>
-      <c r="C79" s="57" t="s">
+      <c r="D79" s="57" t="s">
         <v>505</v>
       </c>
-      <c r="D79" s="57" t="s">
+      <c r="E79" s="57" t="s">
         <v>506</v>
       </c>
-      <c r="E79" s="57" t="s">
+      <c r="F79" s="57" t="s">
         <v>507</v>
       </c>
-      <c r="F79" s="57" t="s">
+      <c r="G79" s="58" t="s">
         <v>508</v>
-      </c>
-      <c r="G79" s="58" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="80" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A80" s="53" t="s">
+        <v>509</v>
+      </c>
+      <c r="B80" s="56" t="s">
         <v>510</v>
       </c>
-      <c r="B80" s="56" t="s">
+      <c r="C80" s="57" t="s">
         <v>511</v>
       </c>
-      <c r="C80" s="57" t="s">
+      <c r="D80" s="57" t="s">
         <v>512</v>
       </c>
-      <c r="D80" s="57" t="s">
+      <c r="E80" s="57" t="s">
         <v>513</v>
       </c>
-      <c r="E80" s="57" t="s">
+      <c r="F80" s="57" t="s">
         <v>514</v>
       </c>
-      <c r="F80" s="57" t="s">
+      <c r="G80" s="58" t="s">
         <v>515</v>
-      </c>
-      <c r="G80" s="58" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="81" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A81" s="53" t="s">
+        <v>516</v>
+      </c>
+      <c r="B81" s="56" t="s">
+        <v>503</v>
+      </c>
+      <c r="C81" s="57" t="s">
+        <v>504</v>
+      </c>
+      <c r="D81" s="57" t="s">
         <v>517</v>
       </c>
-      <c r="B81" s="56" t="s">
-        <v>504</v>
-      </c>
-      <c r="C81" s="57" t="s">
-        <v>505</v>
-      </c>
-      <c r="D81" s="57" t="s">
+      <c r="E81" s="57" t="s">
         <v>518</v>
       </c>
-      <c r="E81" s="57" t="s">
+      <c r="F81" s="57" t="s">
         <v>519</v>
       </c>
-      <c r="F81" s="57" t="s">
+      <c r="G81" s="58" t="s">
         <v>520</v>
-      </c>
-      <c r="G81" s="58" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="82" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A82" s="53" t="s">
+        <v>521</v>
+      </c>
+      <c r="B82" s="56" t="s">
+        <v>510</v>
+      </c>
+      <c r="C82" s="57" t="s">
+        <v>511</v>
+      </c>
+      <c r="D82" s="57" t="s">
         <v>522</v>
       </c>
-      <c r="B82" s="56" t="s">
-        <v>511</v>
-      </c>
-      <c r="C82" s="57" t="s">
-        <v>512</v>
-      </c>
-      <c r="D82" s="57" t="s">
+      <c r="E82" s="57" t="s">
         <v>523</v>
       </c>
-      <c r="E82" s="57" t="s">
+      <c r="F82" s="57" t="s">
         <v>524</v>
       </c>
-      <c r="F82" s="57" t="s">
+      <c r="G82" s="58" t="s">
         <v>525</v>
-      </c>
-      <c r="G82" s="58" t="s">
-        <v>526</v>
       </c>
     </row>
     <row r="83" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A83" s="53" t="s">
+        <v>526</v>
+      </c>
+      <c r="B83" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C83" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="D83" s="57" t="s">
         <v>527</v>
       </c>
-      <c r="B83" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="C83" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="D83" s="57" t="s">
+      <c r="E83" s="57" t="s">
         <v>528</v>
       </c>
-      <c r="E83" s="57" t="s">
+      <c r="F83" s="57" t="s">
         <v>529</v>
       </c>
-      <c r="F83" s="57" t="s">
+      <c r="G83" s="58" t="s">
         <v>530</v>
-      </c>
-      <c r="G83" s="58" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="84" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A84" s="53" t="s">
+        <v>531</v>
+      </c>
+      <c r="B84" s="56" t="s">
+        <v>280</v>
+      </c>
+      <c r="C84" s="57" t="s">
+        <v>330</v>
+      </c>
+      <c r="D84" s="57" t="s">
         <v>532</v>
       </c>
-      <c r="B84" s="56" t="s">
-        <v>281</v>
-      </c>
-      <c r="C84" s="57" t="s">
-        <v>331</v>
-      </c>
-      <c r="D84" s="57" t="s">
+      <c r="E84" s="57" t="s">
         <v>533</v>
       </c>
-      <c r="E84" s="57" t="s">
+      <c r="F84" s="57" t="s">
         <v>534</v>
       </c>
-      <c r="F84" s="57" t="s">
+      <c r="G84" s="58" t="s">
         <v>535</v>
-      </c>
-      <c r="G84" s="58" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="53" t="s">
+        <v>536</v>
+      </c>
+      <c r="B85" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C85" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="D85" s="57" t="s">
         <v>537</v>
       </c>
-      <c r="B85" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="C85" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="D85" s="57" t="s">
+      <c r="E85" s="57" t="s">
         <v>538</v>
       </c>
-      <c r="E85" s="57" t="s">
+      <c r="F85" s="57" t="s">
         <v>539</v>
       </c>
-      <c r="F85" s="57" t="s">
+      <c r="G85" s="58" t="s">
         <v>540</v>
-      </c>
-      <c r="G85" s="58" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="86" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A86" s="53" t="s">
+        <v>541</v>
+      </c>
+      <c r="B86" s="56" t="s">
+        <v>280</v>
+      </c>
+      <c r="C86" s="57" t="s">
+        <v>330</v>
+      </c>
+      <c r="D86" s="57" t="s">
         <v>542</v>
       </c>
-      <c r="B86" s="56" t="s">
-        <v>281</v>
-      </c>
-      <c r="C86" s="57" t="s">
-        <v>331</v>
-      </c>
-      <c r="D86" s="57" t="s">
+      <c r="E86" s="57" t="s">
         <v>543</v>
       </c>
-      <c r="E86" s="57" t="s">
+      <c r="F86" s="57" t="s">
         <v>544</v>
       </c>
-      <c r="F86" s="57" t="s">
+      <c r="G86" s="58" t="s">
         <v>545</v>
-      </c>
-      <c r="G86" s="58" t="s">
-        <v>546</v>
       </c>
     </row>
     <row r="87" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A87" s="53" t="s">
+        <v>546</v>
+      </c>
+      <c r="B87" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C87" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="D87" s="57" t="s">
         <v>547</v>
       </c>
-      <c r="B87" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="C87" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="D87" s="57" t="s">
+      <c r="E87" s="57" t="s">
         <v>548</v>
       </c>
-      <c r="E87" s="57" t="s">
+      <c r="F87" s="57" t="s">
         <v>549</v>
       </c>
-      <c r="F87" s="57" t="s">
+      <c r="G87" s="58" t="s">
         <v>550</v>
-      </c>
-      <c r="G87" s="58" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="88" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A88" s="53" t="s">
+        <v>551</v>
+      </c>
+      <c r="B88" s="56" t="s">
+        <v>280</v>
+      </c>
+      <c r="C88" s="57" t="s">
+        <v>330</v>
+      </c>
+      <c r="D88" s="57" t="s">
         <v>552</v>
       </c>
-      <c r="B88" s="56" t="s">
-        <v>281</v>
-      </c>
-      <c r="C88" s="57" t="s">
-        <v>331</v>
-      </c>
-      <c r="D88" s="57" t="s">
+      <c r="E88" s="57" t="s">
         <v>553</v>
       </c>
-      <c r="E88" s="57" t="s">
+      <c r="F88" s="57" t="s">
         <v>554</v>
       </c>
-      <c r="F88" s="57" t="s">
+      <c r="G88" s="58" t="s">
         <v>555</v>
-      </c>
-      <c r="G88" s="58" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="89" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A89" s="53" t="s">
+        <v>556</v>
+      </c>
+      <c r="B89" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C89" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="D89" s="57" t="s">
         <v>557</v>
       </c>
-      <c r="B89" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="C89" s="57" t="s">
-        <v>135</v>
-      </c>
-      <c r="D89" s="57" t="s">
+      <c r="E89" s="57" t="s">
         <v>558</v>
       </c>
-      <c r="E89" s="57" t="s">
+      <c r="F89" s="57" t="s">
         <v>559</v>
       </c>
-      <c r="F89" s="57" t="s">
+      <c r="G89" s="58" t="s">
         <v>560</v>
-      </c>
-      <c r="G89" s="58" t="s">
-        <v>561</v>
       </c>
     </row>
     <row r="90" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A90" s="53" t="s">
+        <v>561</v>
+      </c>
+      <c r="B90" s="56" t="s">
+        <v>280</v>
+      </c>
+      <c r="C90" s="57" t="s">
+        <v>330</v>
+      </c>
+      <c r="D90" s="57" t="s">
         <v>562</v>
       </c>
-      <c r="B90" s="56" t="s">
-        <v>281</v>
-      </c>
-      <c r="C90" s="57" t="s">
-        <v>331</v>
-      </c>
-      <c r="D90" s="57" t="s">
+      <c r="E90" s="57" t="s">
         <v>563</v>
       </c>
-      <c r="E90" s="57" t="s">
+      <c r="F90" s="57" t="s">
         <v>564</v>
       </c>
-      <c r="F90" s="57" t="s">
+      <c r="G90" s="58" t="s">
         <v>565</v>
-      </c>
-      <c r="G90" s="58" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="91" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A91" s="53" t="s">
+        <v>566</v>
+      </c>
+      <c r="B91" s="56" t="s">
         <v>567</v>
       </c>
-      <c r="B91" s="56" t="s">
+      <c r="C91" s="57" t="s">
         <v>568</v>
       </c>
-      <c r="C91" s="57" t="s">
+      <c r="D91" s="57" t="s">
         <v>569</v>
       </c>
-      <c r="D91" s="57" t="s">
+      <c r="E91" s="57" t="s">
         <v>570</v>
       </c>
-      <c r="E91" s="57" t="s">
+      <c r="F91" s="57" t="s">
         <v>571</v>
       </c>
-      <c r="F91" s="57" t="s">
+      <c r="G91" s="58" t="s">
         <v>572</v>
-      </c>
-      <c r="G91" s="58" t="s">
-        <v>573</v>
       </c>
     </row>
     <row r="92" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A92" s="53" t="s">
+        <v>573</v>
+      </c>
+      <c r="B92" s="56" t="s">
         <v>574</v>
       </c>
-      <c r="B92" s="56" t="s">
+      <c r="C92" s="57" t="s">
         <v>575</v>
       </c>
-      <c r="C92" s="57" t="s">
+      <c r="D92" s="57" t="s">
         <v>576</v>
       </c>
-      <c r="D92" s="57" t="s">
+      <c r="E92" s="57" t="s">
         <v>577</v>
       </c>
-      <c r="E92" s="57" t="s">
+      <c r="F92" s="57" t="s">
         <v>578</v>
       </c>
-      <c r="F92" s="57" t="s">
+      <c r="G92" s="58" t="s">
         <v>579</v>
-      </c>
-      <c r="G92" s="58" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="93" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A93" s="53" t="s">
+        <v>580</v>
+      </c>
+      <c r="B93" s="56" t="s">
+        <v>567</v>
+      </c>
+      <c r="C93" s="57" t="s">
         <v>581</v>
       </c>
-      <c r="B93" s="56" t="s">
-        <v>568</v>
-      </c>
-      <c r="C93" s="57" t="s">
+      <c r="D93" s="57" t="s">
         <v>582</v>
       </c>
-      <c r="D93" s="57" t="s">
+      <c r="E93" s="57" t="s">
         <v>583</v>
       </c>
-      <c r="E93" s="57" t="s">
+      <c r="F93" s="57" t="s">
         <v>584</v>
       </c>
-      <c r="F93" s="57" t="s">
+      <c r="G93" s="58" t="s">
         <v>585</v>
-      </c>
-      <c r="G93" s="58" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="94" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A94" s="53" t="s">
+        <v>586</v>
+      </c>
+      <c r="B94" s="56" t="s">
+        <v>574</v>
+      </c>
+      <c r="C94" s="57" t="s">
         <v>587</v>
       </c>
-      <c r="B94" s="56" t="s">
-        <v>575</v>
-      </c>
-      <c r="C94" s="57" t="s">
+      <c r="D94" s="57" t="s">
         <v>588</v>
       </c>
-      <c r="D94" s="57" t="s">
+      <c r="E94" s="57" t="s">
         <v>589</v>
       </c>
-      <c r="E94" s="57" t="s">
+      <c r="F94" s="57" t="s">
         <v>590</v>
       </c>
-      <c r="F94" s="57" t="s">
+      <c r="G94" s="58" t="s">
         <v>591</v>
-      </c>
-      <c r="G94" s="58" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="95" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A95" s="53" t="s">
+        <v>592</v>
+      </c>
+      <c r="B95" s="56" t="s">
+        <v>567</v>
+      </c>
+      <c r="C95" s="57" t="s">
+        <v>581</v>
+      </c>
+      <c r="D95" s="57" t="s">
         <v>593</v>
       </c>
-      <c r="B95" s="56" t="s">
-        <v>568</v>
-      </c>
-      <c r="C95" s="57" t="s">
-        <v>582</v>
-      </c>
-      <c r="D95" s="57" t="s">
+      <c r="E95" s="57" t="s">
         <v>594</v>
       </c>
-      <c r="E95" s="57" t="s">
+      <c r="F95" s="57" t="s">
         <v>595</v>
       </c>
-      <c r="F95" s="57" t="s">
+      <c r="G95" s="58" t="s">
         <v>596</v>
-      </c>
-      <c r="G95" s="58" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="96" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A96" s="53" t="s">
+        <v>597</v>
+      </c>
+      <c r="B96" s="56" t="s">
+        <v>574</v>
+      </c>
+      <c r="C96" s="57" t="s">
+        <v>587</v>
+      </c>
+      <c r="D96" s="57" t="s">
         <v>598</v>
       </c>
-      <c r="B96" s="56" t="s">
-        <v>575</v>
-      </c>
-      <c r="C96" s="57" t="s">
-        <v>588</v>
-      </c>
-      <c r="D96" s="57" t="s">
+      <c r="E96" s="57" t="s">
         <v>599</v>
       </c>
-      <c r="E96" s="57" t="s">
+      <c r="F96" s="57" t="s">
         <v>600</v>
       </c>
-      <c r="F96" s="57" t="s">
+      <c r="G96" s="58" t="s">
         <v>601</v>
-      </c>
-      <c r="G96" s="58" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="97" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A97" s="53" t="s">
+        <v>602</v>
+      </c>
+      <c r="B97" s="56" t="s">
+        <v>567</v>
+      </c>
+      <c r="C97" s="57" t="s">
         <v>603</v>
       </c>
-      <c r="B97" s="56" t="s">
-        <v>568</v>
-      </c>
-      <c r="C97" s="57" t="s">
+      <c r="D97" s="57" t="s">
         <v>604</v>
       </c>
-      <c r="D97" s="57" t="s">
+      <c r="E97" s="57" t="s">
         <v>605</v>
       </c>
-      <c r="E97" s="57" t="s">
+      <c r="F97" s="57" t="s">
         <v>606</v>
       </c>
-      <c r="F97" s="57" t="s">
+      <c r="G97" s="58" t="s">
         <v>607</v>
-      </c>
-      <c r="G97" s="58" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="98" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A98" s="53" t="s">
+        <v>608</v>
+      </c>
+      <c r="B98" s="56" t="s">
         <v>609</v>
       </c>
-      <c r="B98" s="56" t="s">
+      <c r="C98" s="57" t="s">
         <v>610</v>
       </c>
-      <c r="C98" s="57" t="s">
+      <c r="D98" s="57" t="s">
         <v>611</v>
       </c>
-      <c r="D98" s="57" t="s">
+      <c r="E98" s="57" t="s">
         <v>612</v>
       </c>
-      <c r="E98" s="57" t="s">
+      <c r="F98" s="57" t="s">
         <v>613</v>
       </c>
-      <c r="F98" s="57" t="s">
+      <c r="G98" s="58" t="s">
         <v>614</v>
-      </c>
-      <c r="G98" s="58" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="99" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A99" s="53" t="s">
+        <v>615</v>
+      </c>
+      <c r="B99" s="56" t="s">
         <v>616</v>
       </c>
-      <c r="B99" s="56" t="s">
+      <c r="C99" s="57" t="s">
         <v>617</v>
       </c>
-      <c r="C99" s="57" t="s">
+      <c r="D99" s="57" t="s">
         <v>618</v>
       </c>
-      <c r="D99" s="57" t="s">
+      <c r="E99" s="57" t="s">
         <v>619</v>
       </c>
-      <c r="E99" s="57" t="s">
+      <c r="F99" s="57" t="s">
         <v>620</v>
       </c>
-      <c r="F99" s="57" t="s">
+      <c r="G99" s="58" t="s">
         <v>621</v>
-      </c>
-      <c r="G99" s="58" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="100" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A100" s="53" t="s">
+        <v>622</v>
+      </c>
+      <c r="B100" s="56" t="s">
+        <v>609</v>
+      </c>
+      <c r="C100" s="57" t="s">
         <v>623</v>
       </c>
-      <c r="B100" s="56" t="s">
-        <v>610</v>
-      </c>
-      <c r="C100" s="57" t="s">
+      <c r="D100" s="57" t="s">
         <v>624</v>
       </c>
-      <c r="D100" s="57" t="s">
+      <c r="E100" s="57" t="s">
         <v>625</v>
       </c>
-      <c r="E100" s="57" t="s">
+      <c r="F100" s="57" t="s">
         <v>626</v>
       </c>
-      <c r="F100" s="57" t="s">
+      <c r="G100" s="58" t="s">
         <v>627</v>
-      </c>
-      <c r="G100" s="58" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="101" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A101" s="53" t="s">
+        <v>628</v>
+      </c>
+      <c r="B101" s="56" t="s">
+        <v>616</v>
+      </c>
+      <c r="C101" s="57" t="s">
         <v>629</v>
       </c>
-      <c r="B101" s="56" t="s">
-        <v>617</v>
-      </c>
-      <c r="C101" s="57" t="s">
+      <c r="D101" s="57" t="s">
         <v>630</v>
       </c>
-      <c r="D101" s="57" t="s">
+      <c r="E101" s="57" t="s">
         <v>631</v>
       </c>
-      <c r="E101" s="57" t="s">
+      <c r="F101" s="57" t="s">
         <v>632</v>
       </c>
-      <c r="F101" s="57" t="s">
+      <c r="G101" s="58" t="s">
         <v>633</v>
-      </c>
-      <c r="G101" s="58" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="102" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A102" s="53" t="s">
+        <v>634</v>
+      </c>
+      <c r="B102" s="56" t="s">
         <v>635</v>
       </c>
-      <c r="B102" s="56" t="s">
+      <c r="C102" s="57" t="s">
         <v>636</v>
       </c>
-      <c r="C102" s="57" t="s">
+      <c r="D102" s="57" t="s">
         <v>637</v>
       </c>
-      <c r="D102" s="57" t="s">
+      <c r="E102" s="57" t="s">
         <v>638</v>
       </c>
-      <c r="E102" s="57" t="s">
+      <c r="F102" s="57" t="s">
         <v>639</v>
       </c>
-      <c r="F102" s="57" t="s">
+      <c r="G102" s="58" t="s">
         <v>640</v>
-      </c>
-      <c r="G102" s="58" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="103" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="53" t="s">
+        <v>641</v>
+      </c>
+      <c r="B103" s="56" t="s">
+        <v>305</v>
+      </c>
+      <c r="C103" s="57" t="s">
         <v>642</v>
       </c>
-      <c r="B103" s="56" t="s">
-        <v>306</v>
-      </c>
-      <c r="C103" s="57" t="s">
+      <c r="D103" s="57" t="s">
         <v>643</v>
       </c>
-      <c r="D103" s="57" t="s">
+      <c r="E103" s="57" t="s">
         <v>644</v>
       </c>
-      <c r="E103" s="57" t="s">
+      <c r="F103" s="57" t="s">
         <v>645</v>
       </c>
-      <c r="F103" s="57" t="s">
+      <c r="G103" s="58" t="s">
         <v>646</v>
-      </c>
-      <c r="G103" s="58" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="104" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="53" t="s">
+        <v>647</v>
+      </c>
+      <c r="B104" s="56" t="s">
+        <v>635</v>
+      </c>
+      <c r="C104" s="57" t="s">
         <v>648</v>
       </c>
-      <c r="B104" s="56" t="s">
-        <v>636</v>
-      </c>
-      <c r="C104" s="57" t="s">
+      <c r="D104" s="57" t="s">
         <v>649</v>
       </c>
-      <c r="D104" s="57" t="s">
+      <c r="E104" s="57" t="s">
         <v>650</v>
       </c>
-      <c r="E104" s="57" t="s">
+      <c r="F104" s="57" t="s">
         <v>651</v>
       </c>
-      <c r="F104" s="57" t="s">
+      <c r="G104" s="58" t="s">
         <v>652</v>
-      </c>
-      <c r="G104" s="58" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="105" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="53" t="s">
+        <v>653</v>
+      </c>
+      <c r="B105" s="56" t="s">
+        <v>305</v>
+      </c>
+      <c r="C105" s="57" t="s">
         <v>654</v>
       </c>
-      <c r="B105" s="56" t="s">
-        <v>306</v>
-      </c>
-      <c r="C105" s="57" t="s">
+      <c r="D105" s="57" t="s">
         <v>655</v>
       </c>
-      <c r="D105" s="57" t="s">
+      <c r="E105" s="57" t="s">
         <v>656</v>
       </c>
-      <c r="E105" s="57" t="s">
+      <c r="F105" s="57" t="s">
         <v>657</v>
       </c>
-      <c r="F105" s="57" t="s">
+      <c r="G105" s="58" t="s">
         <v>658</v>
-      </c>
-      <c r="G105" s="58" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="106" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="53" t="s">
+        <v>659</v>
+      </c>
+      <c r="B106" s="56" t="s">
+        <v>635</v>
+      </c>
+      <c r="C106" s="57" t="s">
+        <v>648</v>
+      </c>
+      <c r="D106" s="57" t="s">
         <v>660</v>
       </c>
-      <c r="B106" s="56" t="s">
-        <v>636</v>
-      </c>
-      <c r="C106" s="57" t="s">
-        <v>649</v>
-      </c>
-      <c r="D106" s="57" t="s">
+      <c r="E106" s="57" t="s">
         <v>661</v>
       </c>
-      <c r="E106" s="57" t="s">
+      <c r="F106" s="57" t="s">
         <v>662</v>
       </c>
-      <c r="F106" s="57" t="s">
+      <c r="G106" s="58" t="s">
         <v>663</v>
-      </c>
-      <c r="G106" s="58" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="107" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A107" s="53" t="s">
+        <v>664</v>
+      </c>
+      <c r="B107" s="56" t="s">
+        <v>305</v>
+      </c>
+      <c r="C107" s="57" t="s">
+        <v>654</v>
+      </c>
+      <c r="D107" s="57" t="s">
         <v>665</v>
       </c>
-      <c r="B107" s="56" t="s">
-        <v>306</v>
-      </c>
-      <c r="C107" s="57" t="s">
-        <v>655</v>
-      </c>
-      <c r="D107" s="57" t="s">
+      <c r="E107" s="57" t="s">
         <v>666</v>
       </c>
-      <c r="E107" s="57" t="s">
+      <c r="F107" s="57" t="s">
         <v>667</v>
       </c>
-      <c r="F107" s="57" t="s">
+      <c r="G107" s="58" t="s">
         <v>668</v>
-      </c>
-      <c r="G107" s="58" t="s">
-        <v>669</v>
       </c>
     </row>
     <row r="108" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A108" s="53" t="s">
+        <v>669</v>
+      </c>
+      <c r="B108" s="56" t="s">
+        <v>635</v>
+      </c>
+      <c r="C108" s="57" t="s">
+        <v>648</v>
+      </c>
+      <c r="D108" s="57" t="s">
         <v>670</v>
       </c>
-      <c r="B108" s="56" t="s">
-        <v>636</v>
-      </c>
-      <c r="C108" s="57" t="s">
-        <v>649</v>
-      </c>
-      <c r="D108" s="57" t="s">
+      <c r="E108" s="57" t="s">
         <v>671</v>
       </c>
-      <c r="E108" s="57" t="s">
+      <c r="F108" s="57" t="s">
         <v>672</v>
       </c>
-      <c r="F108" s="57" t="s">
+      <c r="G108" s="58" t="s">
         <v>673</v>
-      </c>
-      <c r="G108" s="58" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="109" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A109" s="53" t="s">
+        <v>674</v>
+      </c>
+      <c r="B109" s="56" t="s">
+        <v>305</v>
+      </c>
+      <c r="C109" s="57" t="s">
         <v>675</v>
       </c>
-      <c r="B109" s="56" t="s">
-        <v>306</v>
-      </c>
-      <c r="C109" s="57" t="s">
+      <c r="D109" s="57" t="s">
         <v>676</v>
       </c>
-      <c r="D109" s="57" t="s">
+      <c r="E109" s="57" t="s">
         <v>677</v>
       </c>
-      <c r="E109" s="57" t="s">
+      <c r="F109" s="57" t="s">
         <v>678</v>
       </c>
-      <c r="F109" s="57" t="s">
+      <c r="G109" s="58" t="s">
         <v>679</v>
-      </c>
-      <c r="G109" s="58" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="110" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A110" s="53" t="s">
+        <v>680</v>
+      </c>
+      <c r="B110" s="56" t="s">
+        <v>635</v>
+      </c>
+      <c r="C110" s="57" t="s">
+        <v>648</v>
+      </c>
+      <c r="D110" s="57" t="s">
         <v>681</v>
       </c>
-      <c r="B110" s="56" t="s">
-        <v>636</v>
-      </c>
-      <c r="C110" s="57" t="s">
-        <v>649</v>
-      </c>
-      <c r="D110" s="57" t="s">
+      <c r="E110" s="57" t="s">
         <v>682</v>
       </c>
-      <c r="E110" s="57" t="s">
+      <c r="F110" s="57" t="s">
         <v>683</v>
       </c>
-      <c r="F110" s="57" t="s">
+      <c r="G110" s="58" t="s">
         <v>684</v>
-      </c>
-      <c r="G110" s="58" t="s">
-        <v>685</v>
       </c>
     </row>
     <row r="111" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A111" s="53" t="s">
+        <v>685</v>
+      </c>
+      <c r="B111" s="56" t="s">
+        <v>305</v>
+      </c>
+      <c r="C111" s="57" t="s">
+        <v>654</v>
+      </c>
+      <c r="D111" s="57" t="s">
         <v>686</v>
       </c>
-      <c r="B111" s="56" t="s">
-        <v>306</v>
-      </c>
-      <c r="C111" s="57" t="s">
-        <v>655</v>
-      </c>
-      <c r="D111" s="57" t="s">
+      <c r="E111" s="57" t="s">
         <v>687</v>
       </c>
-      <c r="E111" s="57" t="s">
+      <c r="F111" s="57" t="s">
         <v>688</v>
       </c>
-      <c r="F111" s="57" t="s">
+      <c r="G111" s="58" t="s">
         <v>689</v>
-      </c>
-      <c r="G111" s="58" t="s">
-        <v>690</v>
       </c>
     </row>
     <row r="112" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A112" s="53" t="s">
+        <v>690</v>
+      </c>
+      <c r="B112" s="56" t="s">
         <v>691</v>
       </c>
-      <c r="B112" s="56" t="s">
+      <c r="C112" s="57" t="s">
         <v>692</v>
       </c>
-      <c r="C112" s="57" t="s">
+      <c r="D112" s="57" t="s">
         <v>693</v>
       </c>
-      <c r="D112" s="57" t="s">
+      <c r="E112" s="57" t="s">
         <v>694</v>
       </c>
-      <c r="E112" s="57" t="s">
+      <c r="F112" s="57" t="s">
         <v>695</v>
       </c>
-      <c r="F112" s="57" t="s">
+      <c r="G112" s="58" t="s">
         <v>696</v>
-      </c>
-      <c r="G112" s="58" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="113" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A113" s="53" t="s">
+        <v>697</v>
+      </c>
+      <c r="B113" s="56" t="s">
         <v>698</v>
       </c>
-      <c r="B113" s="56" t="s">
+      <c r="C113" s="57" t="s">
         <v>699</v>
       </c>
-      <c r="C113" s="57" t="s">
+      <c r="D113" s="57" t="s">
         <v>700</v>
       </c>
-      <c r="D113" s="57" t="s">
+      <c r="E113" s="57" t="s">
         <v>701</v>
       </c>
-      <c r="E113" s="57" t="s">
+      <c r="F113" s="57" t="s">
         <v>702</v>
       </c>
-      <c r="F113" s="57" t="s">
+      <c r="G113" s="58" t="s">
         <v>703</v>
-      </c>
-      <c r="G113" s="58" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="114" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A114" s="53" t="s">
+        <v>704</v>
+      </c>
+      <c r="B114" s="56" t="s">
         <v>705</v>
       </c>
-      <c r="B114" s="56" t="s">
+      <c r="C114" s="57" t="s">
         <v>706</v>
       </c>
-      <c r="C114" s="57" t="s">
+      <c r="D114" s="57" t="s">
         <v>707</v>
       </c>
-      <c r="D114" s="57" t="s">
+      <c r="E114" s="57" t="s">
         <v>708</v>
       </c>
-      <c r="E114" s="57" t="s">
+      <c r="F114" s="57" t="s">
         <v>709</v>
       </c>
-      <c r="F114" s="57" t="s">
+      <c r="G114" s="58" t="s">
         <v>710</v>
-      </c>
-      <c r="G114" s="58" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="115" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A115" s="53" t="s">
+        <v>711</v>
+      </c>
+      <c r="B115" s="56" t="s">
         <v>712</v>
       </c>
-      <c r="B115" s="56" t="s">
+      <c r="C115" s="57" t="s">
         <v>713</v>
       </c>
-      <c r="C115" s="57" t="s">
+      <c r="D115" s="57" t="s">
         <v>714</v>
       </c>
-      <c r="D115" s="57" t="s">
+      <c r="E115" s="57" t="s">
         <v>715</v>
       </c>
-      <c r="E115" s="57" t="s">
+      <c r="F115" s="57" t="s">
         <v>716</v>
       </c>
-      <c r="F115" s="57" t="s">
+      <c r="G115" s="58" t="s">
         <v>717</v>
-      </c>
-      <c r="G115" s="58" t="s">
-        <v>718</v>
       </c>
     </row>
     <row r="116" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A116" s="53" t="s">
+        <v>718</v>
+      </c>
+      <c r="B116" s="56" t="s">
+        <v>712</v>
+      </c>
+      <c r="C116" s="57" t="s">
         <v>719</v>
       </c>
-      <c r="B116" s="56" t="s">
-        <v>713</v>
-      </c>
-      <c r="C116" s="57" t="s">
+      <c r="D116" s="57" t="s">
         <v>720</v>
       </c>
-      <c r="D116" s="57" t="s">
+      <c r="E116" s="57" t="s">
         <v>721</v>
       </c>
-      <c r="E116" s="57" t="s">
+      <c r="F116" s="57" t="s">
         <v>722</v>
       </c>
-      <c r="F116" s="57" t="s">
+      <c r="G116" s="58" t="s">
         <v>723</v>
-      </c>
-      <c r="G116" s="58" t="s">
-        <v>724</v>
       </c>
     </row>
     <row r="117" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A117" s="53" t="s">
+        <v>724</v>
+      </c>
+      <c r="B117" s="56" t="s">
         <v>725</v>
       </c>
-      <c r="B117" s="56" t="s">
+      <c r="C117" s="57" t="s">
         <v>726</v>
       </c>
-      <c r="C117" s="57" t="s">
+      <c r="D117" s="57" t="s">
         <v>727</v>
       </c>
-      <c r="D117" s="57" t="s">
+      <c r="E117" s="57" t="s">
         <v>728</v>
       </c>
-      <c r="E117" s="57" t="s">
+      <c r="F117" s="57" t="s">
         <v>729</v>
       </c>
-      <c r="F117" s="57" t="s">
+      <c r="G117" s="58" t="s">
         <v>730</v>
-      </c>
-      <c r="G117" s="58" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="118" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A118" s="53" t="s">
+        <v>731</v>
+      </c>
+      <c r="B118" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="C118" s="57" t="s">
         <v>732</v>
       </c>
-      <c r="B118" s="56" t="s">
-        <v>110</v>
-      </c>
-      <c r="C118" s="57" t="s">
+      <c r="D118" s="57" t="s">
         <v>733</v>
       </c>
-      <c r="D118" s="57" t="s">
+      <c r="E118" s="57" t="s">
         <v>734</v>
       </c>
-      <c r="E118" s="57" t="s">
+      <c r="F118" s="57" t="s">
         <v>735</v>
       </c>
-      <c r="F118" s="57" t="s">
+      <c r="G118" s="58" t="s">
         <v>736</v>
-      </c>
-      <c r="G118" s="58" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="119" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A119" s="53" t="s">
+        <v>737</v>
+      </c>
+      <c r="B119" s="56" t="s">
+        <v>725</v>
+      </c>
+      <c r="C119" s="57" t="s">
         <v>738</v>
       </c>
-      <c r="B119" s="56" t="s">
-        <v>726</v>
-      </c>
-      <c r="C119" s="57" t="s">
+      <c r="D119" s="57" t="s">
         <v>739</v>
       </c>
-      <c r="D119" s="57" t="s">
+      <c r="E119" s="57" t="s">
         <v>740</v>
       </c>
-      <c r="E119" s="57" t="s">
+      <c r="F119" s="57" t="s">
         <v>741</v>
       </c>
-      <c r="F119" s="57" t="s">
+      <c r="G119" s="58" t="s">
         <v>742</v>
-      </c>
-      <c r="G119" s="58" t="s">
-        <v>743</v>
       </c>
     </row>
     <row r="120" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A120" s="53" t="s">
+        <v>743</v>
+      </c>
+      <c r="B120" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="C120" s="57" t="s">
         <v>744</v>
       </c>
-      <c r="B120" s="56" t="s">
-        <v>110</v>
-      </c>
-      <c r="C120" s="57" t="s">
+      <c r="D120" s="57" t="s">
         <v>745</v>
       </c>
-      <c r="D120" s="57" t="s">
+      <c r="E120" s="57" t="s">
         <v>746</v>
       </c>
-      <c r="E120" s="57" t="s">
+      <c r="F120" s="57" t="s">
         <v>747</v>
       </c>
-      <c r="F120" s="57" t="s">
+      <c r="G120" s="58" t="s">
         <v>748</v>
-      </c>
-      <c r="G120" s="58" t="s">
-        <v>749</v>
       </c>
     </row>
     <row r="121" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A121" s="53" t="s">
+        <v>749</v>
+      </c>
+      <c r="B121" s="56" t="s">
+        <v>725</v>
+      </c>
+      <c r="C121" s="57" t="s">
         <v>750</v>
       </c>
-      <c r="B121" s="56" t="s">
-        <v>726</v>
-      </c>
-      <c r="C121" s="57" t="s">
+      <c r="D121" s="57" t="s">
         <v>751</v>
       </c>
-      <c r="D121" s="57" t="s">
+      <c r="E121" s="57" t="s">
         <v>752</v>
       </c>
-      <c r="E121" s="57" t="s">
+      <c r="F121" s="57" t="s">
         <v>753</v>
       </c>
-      <c r="F121" s="57" t="s">
+      <c r="G121" s="58" t="s">
         <v>754</v>
-      </c>
-      <c r="G121" s="58" t="s">
-        <v>755</v>
       </c>
     </row>
     <row r="122" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A122" s="53" t="s">
+        <v>755</v>
+      </c>
+      <c r="B122" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="C122" s="57" t="s">
+        <v>744</v>
+      </c>
+      <c r="D122" s="57" t="s">
         <v>756</v>
       </c>
-      <c r="B122" s="56" t="s">
-        <v>110</v>
-      </c>
-      <c r="C122" s="57" t="s">
-        <v>745</v>
-      </c>
-      <c r="D122" s="57" t="s">
+      <c r="E122" s="57" t="s">
         <v>757</v>
       </c>
-      <c r="E122" s="57" t="s">
+      <c r="F122" s="57" t="s">
         <v>758</v>
       </c>
-      <c r="F122" s="57" t="s">
+      <c r="G122" s="58" t="s">
         <v>759</v>
-      </c>
-      <c r="G122" s="58" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="123" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="53" t="s">
+        <v>760</v>
+      </c>
+      <c r="B123" s="56" t="s">
+        <v>725</v>
+      </c>
+      <c r="C123" s="57" t="s">
+        <v>750</v>
+      </c>
+      <c r="D123" s="57" t="s">
         <v>761</v>
       </c>
-      <c r="B123" s="56" t="s">
-        <v>726</v>
-      </c>
-      <c r="C123" s="57" t="s">
-        <v>751</v>
-      </c>
-      <c r="D123" s="57" t="s">
+      <c r="E123" s="57" t="s">
         <v>762</v>
       </c>
-      <c r="E123" s="57" t="s">
+      <c r="F123" s="57" t="s">
         <v>763</v>
       </c>
-      <c r="F123" s="57" t="s">
+      <c r="G123" s="58" t="s">
         <v>764</v>
-      </c>
-      <c r="G123" s="58" t="s">
-        <v>765</v>
       </c>
     </row>
     <row r="124" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A124" s="53" t="s">
+        <v>765</v>
+      </c>
+      <c r="B124" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="C124" s="57" t="s">
+        <v>744</v>
+      </c>
+      <c r="D124" s="57" t="s">
         <v>766</v>
       </c>
-      <c r="B124" s="56" t="s">
-        <v>110</v>
-      </c>
-      <c r="C124" s="57" t="s">
-        <v>745</v>
-      </c>
-      <c r="D124" s="57" t="s">
+      <c r="E124" s="57" t="s">
         <v>767</v>
       </c>
-      <c r="E124" s="57" t="s">
+      <c r="F124" s="57" t="s">
         <v>768</v>
       </c>
-      <c r="F124" s="57" t="s">
+      <c r="G124" s="58" t="s">
         <v>769</v>
-      </c>
-      <c r="G124" s="58" t="s">
-        <v>770</v>
       </c>
     </row>
     <row r="125" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A125" s="53" t="s">
+        <v>770</v>
+      </c>
+      <c r="B125" s="56" t="s">
+        <v>725</v>
+      </c>
+      <c r="C125" s="57" t="s">
+        <v>750</v>
+      </c>
+      <c r="D125" s="57" t="s">
         <v>771</v>
       </c>
-      <c r="B125" s="56" t="s">
-        <v>726</v>
-      </c>
-      <c r="C125" s="57" t="s">
-        <v>751</v>
-      </c>
-      <c r="D125" s="57" t="s">
+      <c r="E125" s="57" t="s">
         <v>772</v>
       </c>
-      <c r="E125" s="57" t="s">
+      <c r="F125" s="57" t="s">
         <v>773</v>
       </c>
-      <c r="F125" s="57" t="s">
+      <c r="G125" s="58" t="s">
         <v>774</v>
-      </c>
-      <c r="G125" s="58" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="126" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A126" s="53" t="s">
+        <v>775</v>
+      </c>
+      <c r="B126" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="C126" s="57" t="s">
         <v>776</v>
       </c>
-      <c r="B126" s="56" t="s">
-        <v>141</v>
-      </c>
-      <c r="C126" s="57" t="s">
+      <c r="D126" s="57" t="s">
         <v>777</v>
       </c>
-      <c r="D126" s="57" t="s">
+      <c r="E126" s="57" t="s">
         <v>778</v>
       </c>
-      <c r="E126" s="57" t="s">
+      <c r="F126" s="57" t="s">
         <v>779</v>
       </c>
-      <c r="F126" s="57" t="s">
+      <c r="G126" s="58" t="s">
         <v>780</v>
-      </c>
-      <c r="G126" s="58" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="127" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A127" s="53" t="s">
+        <v>781</v>
+      </c>
+      <c r="B127" s="56" t="s">
+        <v>336</v>
+      </c>
+      <c r="C127" s="57" t="s">
         <v>782</v>
       </c>
-      <c r="B127" s="56" t="s">
-        <v>337</v>
-      </c>
-      <c r="C127" s="57" t="s">
+      <c r="D127" s="57" t="s">
         <v>783</v>
       </c>
-      <c r="D127" s="57" t="s">
+      <c r="E127" s="57" t="s">
         <v>784</v>
       </c>
-      <c r="E127" s="57" t="s">
+      <c r="F127" s="57" t="s">
         <v>785</v>
       </c>
-      <c r="F127" s="57" t="s">
+      <c r="G127" s="58" t="s">
         <v>786</v>
-      </c>
-      <c r="G127" s="58" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="128" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A128" s="53" t="s">
+        <v>787</v>
+      </c>
+      <c r="B128" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="C128" s="57" t="s">
         <v>788</v>
       </c>
-      <c r="B128" s="56" t="s">
-        <v>141</v>
-      </c>
-      <c r="C128" s="57" t="s">
+      <c r="D128" s="57" t="s">
         <v>789</v>
       </c>
-      <c r="D128" s="57" t="s">
+      <c r="E128" s="57" t="s">
         <v>790</v>
       </c>
-      <c r="E128" s="57" t="s">
+      <c r="F128" s="57" t="s">
         <v>791</v>
       </c>
-      <c r="F128" s="57" t="s">
+      <c r="G128" s="58" t="s">
         <v>792</v>
-      </c>
-      <c r="G128" s="58" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="129" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A129" s="53" t="s">
+        <v>793</v>
+      </c>
+      <c r="B129" s="56" t="s">
+        <v>336</v>
+      </c>
+      <c r="C129" s="57" t="s">
         <v>794</v>
       </c>
-      <c r="B129" s="56" t="s">
-        <v>337</v>
-      </c>
-      <c r="C129" s="57" t="s">
+      <c r="D129" s="57" t="s">
         <v>795</v>
       </c>
-      <c r="D129" s="57" t="s">
+      <c r="E129" s="57" t="s">
         <v>796</v>
       </c>
-      <c r="E129" s="57" t="s">
+      <c r="F129" s="57" t="s">
         <v>797</v>
       </c>
-      <c r="F129" s="57" t="s">
+      <c r="G129" s="58" t="s">
         <v>798</v>
-      </c>
-      <c r="G129" s="58" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="130" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A130" s="53" t="s">
+        <v>799</v>
+      </c>
+      <c r="B130" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="C130" s="57" t="s">
         <v>800</v>
       </c>
-      <c r="B130" s="56" t="s">
-        <v>141</v>
-      </c>
-      <c r="C130" s="57" t="s">
+      <c r="D130" s="57" t="s">
         <v>801</v>
       </c>
-      <c r="D130" s="57" t="s">
+      <c r="E130" s="57" t="s">
         <v>802</v>
       </c>
-      <c r="E130" s="57" t="s">
+      <c r="F130" s="57" t="s">
         <v>803</v>
       </c>
-      <c r="F130" s="57" t="s">
+      <c r="G130" s="58" t="s">
         <v>804</v>
-      </c>
-      <c r="G130" s="58" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="131" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A131" s="53" t="s">
+        <v>805</v>
+      </c>
+      <c r="B131" s="56" t="s">
+        <v>336</v>
+      </c>
+      <c r="C131" s="57" t="s">
         <v>806</v>
       </c>
-      <c r="B131" s="56" t="s">
-        <v>337</v>
-      </c>
-      <c r="C131" s="57" t="s">
+      <c r="D131" s="57" t="s">
         <v>807</v>
       </c>
-      <c r="D131" s="57" t="s">
+      <c r="E131" s="57" t="s">
         <v>808</v>
       </c>
-      <c r="E131" s="57" t="s">
+      <c r="F131" s="57" t="s">
         <v>809</v>
       </c>
-      <c r="F131" s="57" t="s">
+      <c r="G131" s="58" t="s">
         <v>810</v>
-      </c>
-      <c r="G131" s="58" t="s">
-        <v>811</v>
       </c>
     </row>
     <row r="132" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A132" s="53" t="s">
+        <v>811</v>
+      </c>
+      <c r="B132" s="56" t="s">
+        <v>336</v>
+      </c>
+      <c r="C132" s="57" t="s">
+        <v>806</v>
+      </c>
+      <c r="D132" s="57" t="s">
         <v>812</v>
       </c>
-      <c r="B132" s="56" t="s">
-        <v>337</v>
-      </c>
-      <c r="C132" s="57" t="s">
-        <v>807</v>
-      </c>
-      <c r="D132" s="57" t="s">
+      <c r="E132" s="57" t="s">
         <v>813</v>
       </c>
-      <c r="E132" s="57" t="s">
+      <c r="F132" s="57" t="s">
         <v>814</v>
       </c>
-      <c r="F132" s="57" t="s">
+      <c r="G132" s="58" t="s">
         <v>815</v>
-      </c>
-      <c r="G132" s="58" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="133" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A133" s="53" t="s">
+        <v>816</v>
+      </c>
+      <c r="B133" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C133" s="57" t="s">
         <v>817</v>
       </c>
-      <c r="B133" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="C133" s="57" t="s">
+      <c r="D133" s="57" t="s">
         <v>818</v>
       </c>
-      <c r="D133" s="57" t="s">
+      <c r="E133" s="57" t="s">
         <v>819</v>
       </c>
-      <c r="E133" s="57" t="s">
+      <c r="F133" s="57" t="s">
         <v>820</v>
       </c>
-      <c r="F133" s="57" t="s">
+      <c r="G133" s="58" t="s">
         <v>821</v>
-      </c>
-      <c r="G133" s="58" t="s">
-        <v>822</v>
       </c>
     </row>
     <row r="134" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A134" s="53" t="s">
+        <v>822</v>
+      </c>
+      <c r="B134" s="56" t="s">
+        <v>280</v>
+      </c>
+      <c r="C134" s="57" t="s">
         <v>823</v>
       </c>
-      <c r="B134" s="56" t="s">
-        <v>281</v>
-      </c>
-      <c r="C134" s="57" t="s">
+      <c r="D134" s="57" t="s">
         <v>824</v>
       </c>
-      <c r="D134" s="57" t="s">
+      <c r="E134" s="57" t="s">
         <v>825</v>
       </c>
-      <c r="E134" s="57" t="s">
+      <c r="F134" s="57" t="s">
         <v>826</v>
       </c>
-      <c r="F134" s="57" t="s">
+      <c r="G134" s="58" t="s">
         <v>827</v>
-      </c>
-      <c r="G134" s="58" t="s">
-        <v>828</v>
       </c>
     </row>
     <row r="135" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A135" s="53" t="s">
+        <v>828</v>
+      </c>
+      <c r="B135" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="C135" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="D135" s="57" t="s">
         <v>829</v>
       </c>
-      <c r="B135" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="C135" s="57" t="s">
-        <v>179</v>
-      </c>
-      <c r="D135" s="57" t="s">
+      <c r="E135" s="57" t="s">
         <v>830</v>
       </c>
-      <c r="E135" s="57" t="s">
+      <c r="F135" s="57" t="s">
         <v>831</v>
       </c>
-      <c r="F135" s="57" t="s">
+      <c r="G135" s="58" t="s">
         <v>832</v>
-      </c>
-      <c r="G135" s="58" t="s">
-        <v>833</v>
       </c>
     </row>
     <row r="136" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A136" s="53" t="s">
+        <v>833</v>
+      </c>
+      <c r="B136" s="56" t="s">
+        <v>343</v>
+      </c>
+      <c r="C136" s="57" t="s">
+        <v>374</v>
+      </c>
+      <c r="D136" s="57" t="s">
         <v>834</v>
       </c>
-      <c r="B136" s="56" t="s">
-        <v>344</v>
-      </c>
-      <c r="C136" s="57" t="s">
-        <v>375</v>
-      </c>
-      <c r="D136" s="57" t="s">
+      <c r="E136" s="57" t="s">
         <v>835</v>
       </c>
-      <c r="E136" s="57" t="s">
+      <c r="F136" s="57" t="s">
         <v>836</v>
       </c>
-      <c r="F136" s="57" t="s">
+      <c r="G136" s="58" t="s">
         <v>837</v>
-      </c>
-      <c r="G136" s="58" t="s">
-        <v>838</v>
       </c>
     </row>
     <row r="137" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A137" s="53" t="s">
+        <v>838</v>
+      </c>
+      <c r="B137" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="C137" s="57" t="s">
+        <v>178</v>
+      </c>
+      <c r="D137" s="57" t="s">
         <v>839</v>
       </c>
-      <c r="B137" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="C137" s="57" t="s">
-        <v>179</v>
-      </c>
-      <c r="D137" s="57" t="s">
+      <c r="E137" s="57" t="s">
         <v>840</v>
       </c>
-      <c r="E137" s="57" t="s">
+      <c r="F137" s="57" t="s">
         <v>841</v>
       </c>
-      <c r="F137" s="57" t="s">
+      <c r="G137" s="58" t="s">
         <v>842</v>
-      </c>
-      <c r="G137" s="58" t="s">
-        <v>843</v>
       </c>
     </row>
     <row r="138" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A138" s="53" t="s">
+        <v>843</v>
+      </c>
+      <c r="B138" s="56" t="s">
+        <v>343</v>
+      </c>
+      <c r="C138" s="57" t="s">
+        <v>374</v>
+      </c>
+      <c r="D138" s="57" t="s">
         <v>844</v>
       </c>
-      <c r="B138" s="56" t="s">
-        <v>344</v>
-      </c>
-      <c r="C138" s="57" t="s">
-        <v>375</v>
-      </c>
-      <c r="D138" s="57" t="s">
+      <c r="E138" s="57" t="s">
         <v>845</v>
       </c>
-      <c r="E138" s="57" t="s">
+      <c r="F138" s="57" t="s">
         <v>846</v>
       </c>
-      <c r="F138" s="57" t="s">
+      <c r="G138" s="58" t="s">
         <v>847</v>
-      </c>
-      <c r="G138" s="58" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="139" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A139" s="53" t="s">
+        <v>848</v>
+      </c>
+      <c r="B139" s="56" t="s">
+        <v>147</v>
+      </c>
+      <c r="C139" s="57" t="s">
         <v>849</v>
       </c>
-      <c r="B139" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="C139" s="57" t="s">
+      <c r="D139" s="57" t="s">
         <v>850</v>
       </c>
-      <c r="D139" s="57" t="s">
+      <c r="E139" s="57" t="s">
         <v>851</v>
       </c>
-      <c r="E139" s="57" t="s">
+      <c r="F139" s="57" t="s">
         <v>852</v>
       </c>
-      <c r="F139" s="57" t="s">
+      <c r="G139" s="58" t="s">
         <v>853</v>
-      </c>
-      <c r="G139" s="58" t="s">
-        <v>854</v>
       </c>
     </row>
     <row r="140" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A140" s="53" t="s">
+        <v>854</v>
+      </c>
+      <c r="B140" s="56" t="s">
+        <v>343</v>
+      </c>
+      <c r="C140" s="57" t="s">
         <v>855</v>
       </c>
-      <c r="B140" s="56" t="s">
-        <v>344</v>
-      </c>
-      <c r="C140" s="57" t="s">
+      <c r="D140" s="57" t="s">
         <v>856</v>
       </c>
-      <c r="D140" s="57" t="s">
+      <c r="E140" s="57" t="s">
         <v>857</v>
       </c>
-      <c r="E140" s="57" t="s">
+      <c r="F140" s="57" t="s">
         <v>858</v>
       </c>
-      <c r="F140" s="57" t="s">
+      <c r="G140" s="58" t="s">
         <v>859</v>
-      </c>
-      <c r="G140" s="58" t="s">
-        <v>860</v>
       </c>
     </row>
     <row r="141" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A141" s="53" t="s">
+        <v>860</v>
+      </c>
+      <c r="B141" s="56" t="s">
         <v>861</v>
       </c>
-      <c r="B141" s="56" t="s">
+      <c r="C141" s="57" t="s">
         <v>862</v>
       </c>
-      <c r="C141" s="57" t="s">
+      <c r="D141" s="57" t="s">
         <v>863</v>
       </c>
-      <c r="D141" s="57" t="s">
+      <c r="E141" s="57" t="s">
         <v>864</v>
       </c>
-      <c r="E141" s="57" t="s">
+      <c r="F141" s="57" t="s">
         <v>865</v>
       </c>
-      <c r="F141" s="57" t="s">
+      <c r="G141" s="58" t="s">
         <v>866</v>
-      </c>
-      <c r="G141" s="58" t="s">
-        <v>867</v>
       </c>
     </row>
     <row r="142" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A142" s="53" t="s">
+        <v>867</v>
+      </c>
+      <c r="B142" s="56" t="s">
         <v>868</v>
       </c>
-      <c r="B142" s="56" t="s">
+      <c r="C142" s="57" t="s">
         <v>869</v>
       </c>
-      <c r="C142" s="57" t="s">
+      <c r="D142" s="57" t="s">
         <v>870</v>
       </c>
-      <c r="D142" s="57" t="s">
+      <c r="E142" s="57" t="s">
         <v>871</v>
       </c>
-      <c r="E142" s="57" t="s">
+      <c r="F142" s="57" t="s">
         <v>872</v>
       </c>
-      <c r="F142" s="57" t="s">
+      <c r="G142" s="58" t="s">
         <v>873</v>
-      </c>
-      <c r="G142" s="58" t="s">
-        <v>874</v>
       </c>
     </row>
     <row r="143" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A143" s="53" t="s">
+        <v>874</v>
+      </c>
+      <c r="B143" s="56" t="s">
+        <v>861</v>
+      </c>
+      <c r="C143" s="57" t="s">
         <v>875</v>
       </c>
-      <c r="B143" s="56" t="s">
-        <v>862</v>
-      </c>
-      <c r="C143" s="57" t="s">
+      <c r="D143" s="57" t="s">
         <v>876</v>
       </c>
-      <c r="D143" s="57" t="s">
+      <c r="E143" s="57" t="s">
         <v>877</v>
       </c>
-      <c r="E143" s="57" t="s">
+      <c r="F143" s="57" t="s">
         <v>878</v>
       </c>
-      <c r="F143" s="57" t="s">
+      <c r="G143" s="58" t="s">
         <v>879</v>
-      </c>
-      <c r="G143" s="58" t="s">
-        <v>880</v>
       </c>
     </row>
     <row r="144" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A144" s="53" t="s">
+        <v>880</v>
+      </c>
+      <c r="B144" s="56" t="s">
+        <v>868</v>
+      </c>
+      <c r="C144" s="57" t="s">
         <v>881</v>
       </c>
-      <c r="B144" s="56" t="s">
-        <v>869</v>
-      </c>
-      <c r="C144" s="57" t="s">
+      <c r="D144" s="57" t="s">
         <v>882</v>
       </c>
-      <c r="D144" s="57" t="s">
+      <c r="E144" s="57" t="s">
         <v>883</v>
       </c>
-      <c r="E144" s="57" t="s">
+      <c r="F144" s="57" t="s">
         <v>884</v>
       </c>
-      <c r="F144" s="57" t="s">
+      <c r="G144" s="58" t="s">
         <v>885</v>
-      </c>
-      <c r="G144" s="58" t="s">
-        <v>886</v>
       </c>
     </row>
     <row r="145" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A145" s="53" t="s">
+        <v>886</v>
+      </c>
+      <c r="B145" s="56" t="s">
+        <v>861</v>
+      </c>
+      <c r="C145" s="57" t="s">
         <v>887</v>
       </c>
-      <c r="B145" s="56" t="s">
-        <v>862</v>
-      </c>
-      <c r="C145" s="57" t="s">
+      <c r="D145" s="57" t="s">
         <v>888</v>
       </c>
-      <c r="D145" s="57" t="s">
+      <c r="E145" s="57" t="s">
         <v>889</v>
       </c>
-      <c r="E145" s="57" t="s">
+      <c r="F145" s="57" t="s">
         <v>890</v>
       </c>
-      <c r="F145" s="57" t="s">
+      <c r="G145" s="58" t="s">
         <v>891</v>
-      </c>
-      <c r="G145" s="58" t="s">
-        <v>892</v>
       </c>
     </row>
     <row r="146" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A146" s="53" t="s">
+        <v>892</v>
+      </c>
+      <c r="B146" s="56" t="s">
+        <v>868</v>
+      </c>
+      <c r="C146" s="57" t="s">
         <v>893</v>
       </c>
-      <c r="B146" s="56" t="s">
-        <v>869</v>
-      </c>
-      <c r="C146" s="57" t="s">
+      <c r="D146" s="57" t="s">
         <v>894</v>
       </c>
-      <c r="D146" s="57" t="s">
+      <c r="E146" s="57" t="s">
         <v>895</v>
       </c>
-      <c r="E146" s="57" t="s">
+      <c r="F146" s="57" t="s">
         <v>896</v>
       </c>
-      <c r="F146" s="57" t="s">
+      <c r="G146" s="58" t="s">
         <v>897</v>
-      </c>
-      <c r="G146" s="58" t="s">
-        <v>898</v>
       </c>
     </row>
     <row r="147" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A147" s="53" t="s">
+        <v>898</v>
+      </c>
+      <c r="B147" s="56" t="s">
         <v>899</v>
       </c>
-      <c r="B147" s="56" t="s">
+      <c r="C147" s="57" t="s">
         <v>900</v>
       </c>
-      <c r="C147" s="57" t="s">
+      <c r="D147" s="57" t="s">
         <v>901</v>
       </c>
-      <c r="D147" s="57" t="s">
+      <c r="E147" s="57" t="s">
         <v>902</v>
       </c>
-      <c r="E147" s="57" t="s">
+      <c r="F147" s="57" t="s">
         <v>903</v>
       </c>
-      <c r="F147" s="57" t="s">
+      <c r="G147" s="58" t="s">
         <v>904</v>
-      </c>
-      <c r="G147" s="58" t="s">
-        <v>905</v>
       </c>
     </row>
     <row r="148" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A148" s="53" t="s">
+        <v>905</v>
+      </c>
+      <c r="B148" s="56" t="s">
+        <v>223</v>
+      </c>
+      <c r="C148" s="57" t="s">
         <v>906</v>
       </c>
-      <c r="B148" s="56" t="s">
-        <v>224</v>
-      </c>
-      <c r="C148" s="57" t="s">
+      <c r="D148" s="57" t="s">
         <v>907</v>
       </c>
-      <c r="D148" s="57" t="s">
+      <c r="E148" s="57" t="s">
         <v>908</v>
       </c>
-      <c r="E148" s="57" t="s">
+      <c r="F148" s="57" t="s">
         <v>909</v>
       </c>
-      <c r="F148" s="57" t="s">
+      <c r="G148" s="58" t="s">
         <v>910</v>
-      </c>
-      <c r="G148" s="58" t="s">
-        <v>911</v>
       </c>
     </row>
     <row r="149" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A149" s="53" t="s">
+        <v>911</v>
+      </c>
+      <c r="B149" s="56" t="s">
+        <v>899</v>
+      </c>
+      <c r="C149" s="57" t="s">
         <v>912</v>
       </c>
-      <c r="B149" s="56" t="s">
-        <v>900</v>
-      </c>
-      <c r="C149" s="57" t="s">
+      <c r="D149" s="57" t="s">
         <v>913</v>
       </c>
-      <c r="D149" s="57" t="s">
+      <c r="E149" s="57" t="s">
         <v>914</v>
       </c>
-      <c r="E149" s="57" t="s">
+      <c r="F149" s="57" t="s">
         <v>915</v>
       </c>
-      <c r="F149" s="57" t="s">
+      <c r="G149" s="58" t="s">
         <v>916</v>
-      </c>
-      <c r="G149" s="58" t="s">
-        <v>917</v>
       </c>
     </row>
     <row r="150" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A150" s="53" t="s">
+        <v>917</v>
+      </c>
+      <c r="B150" s="56" t="s">
+        <v>223</v>
+      </c>
+      <c r="C150" s="57" t="s">
         <v>918</v>
       </c>
-      <c r="B150" s="56" t="s">
-        <v>224</v>
-      </c>
-      <c r="C150" s="57" t="s">
+      <c r="D150" s="57" t="s">
         <v>919</v>
       </c>
-      <c r="D150" s="57" t="s">
+      <c r="E150" s="57" t="s">
         <v>920</v>
       </c>
-      <c r="E150" s="57" t="s">
+      <c r="F150" s="57" t="s">
         <v>921</v>
       </c>
-      <c r="F150" s="57" t="s">
+      <c r="G150" s="58" t="s">
         <v>922</v>
-      </c>
-      <c r="G150" s="58" t="s">
-        <v>923</v>
       </c>
     </row>
     <row r="151" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A151" s="53" t="s">
+        <v>923</v>
+      </c>
+      <c r="B151" s="56" t="s">
+        <v>899</v>
+      </c>
+      <c r="C151" s="57" t="s">
         <v>924</v>
       </c>
-      <c r="B151" s="56" t="s">
-        <v>900</v>
-      </c>
-      <c r="C151" s="57" t="s">
+      <c r="D151" s="57" t="s">
         <v>925</v>
       </c>
-      <c r="D151" s="57" t="s">
+      <c r="E151" s="57" t="s">
         <v>926</v>
       </c>
-      <c r="E151" s="57" t="s">
+      <c r="F151" s="57" t="s">
         <v>927</v>
       </c>
-      <c r="F151" s="57" t="s">
+      <c r="G151" s="58" t="s">
         <v>928</v>
-      </c>
-      <c r="G151" s="58" t="s">
-        <v>929</v>
       </c>
     </row>
     <row r="152" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A152" s="53" t="s">
+        <v>929</v>
+      </c>
+      <c r="B152" s="56" t="s">
+        <v>223</v>
+      </c>
+      <c r="C152" s="57" t="s">
         <v>930</v>
       </c>
-      <c r="B152" s="56" t="s">
-        <v>224</v>
-      </c>
-      <c r="C152" s="57" t="s">
+      <c r="D152" s="57" t="s">
         <v>931</v>
       </c>
-      <c r="D152" s="57" t="s">
+      <c r="E152" s="57" t="s">
         <v>932</v>
       </c>
-      <c r="E152" s="57" t="s">
+      <c r="F152" s="57" t="s">
         <v>933</v>
       </c>
-      <c r="F152" s="57" t="s">
+      <c r="G152" s="58" t="s">
         <v>934</v>
-      </c>
-      <c r="G152" s="58" t="s">
-        <v>935</v>
       </c>
     </row>
     <row r="153" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A153" s="53" t="s">
+        <v>935</v>
+      </c>
+      <c r="B153" s="56" t="s">
+        <v>899</v>
+      </c>
+      <c r="C153" s="57" t="s">
         <v>936</v>
       </c>
-      <c r="B153" s="56" t="s">
-        <v>900</v>
-      </c>
-      <c r="C153" s="57" t="s">
+      <c r="D153" s="57" t="s">
         <v>937</v>
       </c>
-      <c r="D153" s="57" t="s">
+      <c r="E153" s="57" t="s">
         <v>938</v>
       </c>
-      <c r="E153" s="57" t="s">
+      <c r="F153" s="57" t="s">
         <v>939</v>
       </c>
-      <c r="F153" s="57" t="s">
+      <c r="G153" s="58" t="s">
         <v>940</v>
-      </c>
-      <c r="G153" s="58" t="s">
-        <v>941</v>
       </c>
     </row>
     <row r="154" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A154" s="53" t="s">
+        <v>941</v>
+      </c>
+      <c r="B154" s="56" t="s">
+        <v>223</v>
+      </c>
+      <c r="C154" s="57" t="s">
+        <v>224</v>
+      </c>
+      <c r="D154" s="57" t="s">
         <v>942</v>
       </c>
-      <c r="B154" s="56" t="s">
-        <v>224</v>
-      </c>
-      <c r="C154" s="57" t="s">
-        <v>225</v>
-      </c>
-      <c r="D154" s="57" t="s">
+      <c r="E154" s="57" t="s">
         <v>943</v>
       </c>
-      <c r="E154" s="57" t="s">
+      <c r="F154" s="57" t="s">
         <v>944</v>
       </c>
-      <c r="F154" s="57" t="s">
+      <c r="G154" s="58" t="s">
         <v>945</v>
-      </c>
-      <c r="G154" s="58" t="s">
-        <v>946</v>
       </c>
     </row>
     <row r="155" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A155" s="53" t="s">
+        <v>946</v>
+      </c>
+      <c r="B155" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="C155" s="57" t="s">
         <v>947</v>
       </c>
-      <c r="B155" s="56" t="s">
-        <v>217</v>
-      </c>
-      <c r="C155" s="57" t="s">
+      <c r="D155" s="57" t="s">
         <v>948</v>
       </c>
-      <c r="D155" s="57" t="s">
+      <c r="E155" s="57" t="s">
         <v>949</v>
       </c>
-      <c r="E155" s="57" t="s">
+      <c r="F155" s="57" t="s">
         <v>950</v>
       </c>
-      <c r="F155" s="57" t="s">
+      <c r="G155" s="58" t="s">
         <v>951</v>
-      </c>
-      <c r="G155" s="58" t="s">
-        <v>952</v>
       </c>
     </row>
     <row r="156" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A156" s="53" t="s">
+        <v>952</v>
+      </c>
+      <c r="B156" s="56" t="s">
+        <v>412</v>
+      </c>
+      <c r="C156" s="57" t="s">
         <v>953</v>
       </c>
-      <c r="B156" s="56" t="s">
-        <v>413</v>
-      </c>
-      <c r="C156" s="57" t="s">
+      <c r="D156" s="57" t="s">
         <v>954</v>
       </c>
-      <c r="D156" s="57" t="s">
+      <c r="E156" s="57" t="s">
         <v>955</v>
       </c>
-      <c r="E156" s="57" t="s">
+      <c r="F156" s="57" t="s">
         <v>956</v>
       </c>
-      <c r="F156" s="57" t="s">
+      <c r="G156" s="58" t="s">
         <v>957</v>
-      </c>
-      <c r="G156" s="58" t="s">
-        <v>958</v>
       </c>
     </row>
     <row r="157" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A157" s="53" t="s">
+        <v>958</v>
+      </c>
+      <c r="B157" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="C157" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="D157" s="57" t="s">
         <v>959</v>
       </c>
-      <c r="B157" s="56" t="s">
-        <v>217</v>
-      </c>
-      <c r="C157" s="57" t="s">
-        <v>218</v>
-      </c>
-      <c r="D157" s="57" t="s">
+      <c r="E157" s="57" t="s">
         <v>960</v>
       </c>
-      <c r="E157" s="57" t="s">
+      <c r="F157" s="57" t="s">
         <v>961</v>
       </c>
-      <c r="F157" s="57" t="s">
+      <c r="G157" s="58" t="s">
         <v>962</v>
-      </c>
-      <c r="G157" s="58" t="s">
-        <v>963</v>
       </c>
     </row>
     <row r="158" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A158" s="53" t="s">
+        <v>963</v>
+      </c>
+      <c r="B158" s="56" t="s">
+        <v>412</v>
+      </c>
+      <c r="C158" s="57" t="s">
+        <v>413</v>
+      </c>
+      <c r="D158" s="57" t="s">
         <v>964</v>
       </c>
-      <c r="B158" s="56" t="s">
-        <v>413</v>
-      </c>
-      <c r="C158" s="57" t="s">
-        <v>414</v>
-      </c>
-      <c r="D158" s="57" t="s">
+      <c r="E158" s="57" t="s">
         <v>965</v>
       </c>
-      <c r="E158" s="57" t="s">
+      <c r="F158" s="57" t="s">
         <v>966</v>
       </c>
-      <c r="F158" s="57" t="s">
+      <c r="G158" s="58" t="s">
         <v>967</v>
-      </c>
-      <c r="G158" s="58" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="159" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A159" s="53" t="s">
+        <v>968</v>
+      </c>
+      <c r="B159" s="56" t="s">
+        <v>216</v>
+      </c>
+      <c r="C159" s="57" t="s">
+        <v>217</v>
+      </c>
+      <c r="D159" s="57" t="s">
         <v>969</v>
       </c>
-      <c r="B159" s="56" t="s">
-        <v>217</v>
-      </c>
-      <c r="C159" s="57" t="s">
-        <v>218</v>
-      </c>
-      <c r="D159" s="57" t="s">
+      <c r="E159" s="57" t="s">
         <v>970</v>
       </c>
-      <c r="E159" s="57" t="s">
+      <c r="F159" s="57" t="s">
         <v>971</v>
       </c>
-      <c r="F159" s="57" t="s">
+      <c r="G159" s="58" t="s">
         <v>972</v>
-      </c>
-      <c r="G159" s="58" t="s">
-        <v>973</v>
       </c>
     </row>
     <row r="160" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A160" s="53" t="s">
+        <v>973</v>
+      </c>
+      <c r="B160" s="56" t="s">
+        <v>412</v>
+      </c>
+      <c r="C160" s="57" t="s">
+        <v>413</v>
+      </c>
+      <c r="D160" s="57" t="s">
         <v>974</v>
       </c>
-      <c r="B160" s="56" t="s">
-        <v>413</v>
-      </c>
-      <c r="C160" s="57" t="s">
-        <v>414</v>
-      </c>
-      <c r="D160" s="57" t="s">
+      <c r="E160" s="57" t="s">
         <v>975</v>
       </c>
-      <c r="E160" s="57" t="s">
+      <c r="F160" s="57" t="s">
         <v>976</v>
       </c>
-      <c r="F160" s="57" t="s">
+      <c r="G160" s="58" t="s">
         <v>977</v>
-      </c>
-      <c r="G160" s="58" t="s">
-        <v>978</v>
       </c>
     </row>
     <row r="161" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A161" s="53" t="s">
+        <v>978</v>
+      </c>
+      <c r="B161" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="C161" s="57" t="s">
         <v>979</v>
       </c>
-      <c r="B161" s="56" t="s">
-        <v>185</v>
-      </c>
-      <c r="C161" s="57" t="s">
+      <c r="D161" s="57" t="s">
         <v>980</v>
       </c>
-      <c r="D161" s="57" t="s">
+      <c r="E161" s="57" t="s">
         <v>981</v>
       </c>
-      <c r="E161" s="57" t="s">
+      <c r="F161" s="57" t="s">
         <v>982</v>
       </c>
-      <c r="F161" s="57" t="s">
+      <c r="G161" s="58" t="s">
         <v>983</v>
-      </c>
-      <c r="G161" s="58" t="s">
-        <v>984</v>
       </c>
     </row>
     <row r="162" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A162" s="53" t="s">
+        <v>984</v>
+      </c>
+      <c r="B162" s="56" t="s">
+        <v>380</v>
+      </c>
+      <c r="C162" s="57" t="s">
         <v>985</v>
       </c>
-      <c r="B162" s="56" t="s">
-        <v>381</v>
-      </c>
-      <c r="C162" s="57" t="s">
+      <c r="D162" s="57" t="s">
         <v>986</v>
       </c>
-      <c r="D162" s="57" t="s">
+      <c r="E162" s="57" t="s">
         <v>987</v>
       </c>
-      <c r="E162" s="57" t="s">
+      <c r="F162" s="57" t="s">
         <v>988</v>
       </c>
-      <c r="F162" s="57" t="s">
+      <c r="G162" s="58" t="s">
         <v>989</v>
-      </c>
-      <c r="G162" s="58" t="s">
-        <v>990</v>
       </c>
     </row>
     <row r="163" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A163" s="53" t="s">
+        <v>990</v>
+      </c>
+      <c r="B163" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="C163" s="57" t="s">
         <v>991</v>
       </c>
-      <c r="B163" s="56" t="s">
-        <v>185</v>
-      </c>
-      <c r="C163" s="57" t="s">
+      <c r="D163" s="57" t="s">
         <v>992</v>
       </c>
-      <c r="D163" s="57" t="s">
+      <c r="E163" s="57" t="s">
         <v>993</v>
       </c>
-      <c r="E163" s="57" t="s">
+      <c r="F163" s="57" t="s">
         <v>994</v>
       </c>
-      <c r="F163" s="57" t="s">
+      <c r="G163" s="58" t="s">
         <v>995</v>
-      </c>
-      <c r="G163" s="58" t="s">
-        <v>996</v>
       </c>
     </row>
     <row r="164" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A164" s="53" t="s">
+        <v>996</v>
+      </c>
+      <c r="B164" s="56" t="s">
+        <v>380</v>
+      </c>
+      <c r="C164" s="57" t="s">
         <v>997</v>
       </c>
-      <c r="B164" s="56" t="s">
-        <v>381</v>
-      </c>
-      <c r="C164" s="57" t="s">
+      <c r="D164" s="57" t="s">
         <v>998</v>
       </c>
-      <c r="D164" s="57" t="s">
+      <c r="E164" s="57" t="s">
         <v>999</v>
       </c>
-      <c r="E164" s="57" t="s">
+      <c r="F164" s="57" t="s">
         <v>1000</v>
       </c>
-      <c r="F164" s="57" t="s">
+      <c r="G164" s="58" t="s">
         <v>1001</v>
-      </c>
-      <c r="G164" s="58" t="s">
-        <v>1002</v>
       </c>
     </row>
     <row r="165" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A165" s="53" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B165" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="C165" s="57" t="s">
+        <v>991</v>
+      </c>
+      <c r="D165" s="57" t="s">
         <v>1003</v>
       </c>
-      <c r="B165" s="56" t="s">
-        <v>185</v>
-      </c>
-      <c r="C165" s="57" t="s">
-        <v>992</v>
-      </c>
-      <c r="D165" s="57" t="s">
+      <c r="E165" s="57" t="s">
         <v>1004</v>
       </c>
-      <c r="E165" s="57" t="s">
+      <c r="F165" s="57" t="s">
         <v>1005</v>
       </c>
-      <c r="F165" s="57" t="s">
+      <c r="G165" s="58" t="s">
         <v>1006</v>
-      </c>
-      <c r="G165" s="58" t="s">
-        <v>1007</v>
       </c>
     </row>
     <row r="166" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A166" s="53" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B166" s="56" t="s">
+        <v>380</v>
+      </c>
+      <c r="C166" s="57" t="s">
+        <v>997</v>
+      </c>
+      <c r="D166" s="57" t="s">
         <v>1008</v>
       </c>
-      <c r="B166" s="56" t="s">
-        <v>381</v>
-      </c>
-      <c r="C166" s="57" t="s">
-        <v>998</v>
-      </c>
-      <c r="D166" s="57" t="s">
+      <c r="E166" s="57" t="s">
         <v>1009</v>
       </c>
-      <c r="E166" s="57" t="s">
+      <c r="F166" s="57" t="s">
         <v>1010</v>
       </c>
-      <c r="F166" s="57" t="s">
+      <c r="G166" s="58" t="s">
         <v>1011</v>
-      </c>
-      <c r="G166" s="58" t="s">
-        <v>1012</v>
       </c>
     </row>
     <row r="167" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A167" s="53" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B167" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="C167" s="57" t="s">
         <v>1013</v>
       </c>
-      <c r="B167" s="56" t="s">
-        <v>185</v>
-      </c>
-      <c r="C167" s="57" t="s">
+      <c r="D167" s="57" t="s">
         <v>1014</v>
       </c>
-      <c r="D167" s="57" t="s">
+      <c r="E167" s="57" t="s">
         <v>1015</v>
       </c>
-      <c r="E167" s="57" t="s">
+      <c r="F167" s="57" t="s">
         <v>1016</v>
       </c>
-      <c r="F167" s="57" t="s">
+      <c r="G167" s="58" t="s">
         <v>1017</v>
-      </c>
-      <c r="G167" s="58" t="s">
-        <v>1018</v>
       </c>
     </row>
     <row r="168" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A168" s="53" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B168" s="56" t="s">
+        <v>380</v>
+      </c>
+      <c r="C168" s="57" t="s">
         <v>1019</v>
       </c>
-      <c r="B168" s="56" t="s">
-        <v>381</v>
-      </c>
-      <c r="C168" s="57" t="s">
+      <c r="D168" s="57" t="s">
         <v>1020</v>
       </c>
-      <c r="D168" s="57" t="s">
+      <c r="E168" s="57" t="s">
         <v>1021</v>
       </c>
-      <c r="E168" s="57" t="s">
+      <c r="F168" s="57" t="s">
         <v>1022</v>
       </c>
-      <c r="F168" s="57" t="s">
+      <c r="G168" s="58" t="s">
         <v>1023</v>
-      </c>
-      <c r="G168" s="58" t="s">
-        <v>1024</v>
       </c>
     </row>
     <row r="169" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A169" s="53" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B169" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="C169" s="57" t="s">
+        <v>991</v>
+      </c>
+      <c r="D169" s="57" t="s">
         <v>1025</v>
       </c>
-      <c r="B169" s="56" t="s">
-        <v>185</v>
-      </c>
-      <c r="C169" s="57" t="s">
-        <v>992</v>
-      </c>
-      <c r="D169" s="57" t="s">
+      <c r="E169" s="57" t="s">
         <v>1026</v>
       </c>
-      <c r="E169" s="57" t="s">
+      <c r="F169" s="57" t="s">
         <v>1027</v>
       </c>
-      <c r="F169" s="57" t="s">
+      <c r="G169" s="58" t="s">
         <v>1028</v>
-      </c>
-      <c r="G169" s="58" t="s">
-        <v>1029</v>
       </c>
     </row>
     <row r="170" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A170" s="53" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B170" s="56" t="s">
+        <v>380</v>
+      </c>
+      <c r="C170" s="57" t="s">
+        <v>997</v>
+      </c>
+      <c r="D170" s="57" t="s">
         <v>1030</v>
       </c>
-      <c r="B170" s="56" t="s">
-        <v>381</v>
-      </c>
-      <c r="C170" s="57" t="s">
-        <v>998</v>
-      </c>
-      <c r="D170" s="57" t="s">
+      <c r="E170" s="57" t="s">
         <v>1031</v>
       </c>
-      <c r="E170" s="57" t="s">
+      <c r="F170" s="57" t="s">
         <v>1032</v>
       </c>
-      <c r="F170" s="57" t="s">
+      <c r="G170" s="58" t="s">
         <v>1033</v>
-      </c>
-      <c r="G170" s="58" t="s">
-        <v>1034</v>
       </c>
     </row>
     <row r="171" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A171" s="53" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B171" s="56" t="s">
+        <v>184</v>
+      </c>
+      <c r="C171" s="57" t="s">
+        <v>991</v>
+      </c>
+      <c r="D171" s="57" t="s">
         <v>1035</v>
       </c>
-      <c r="B171" s="56" t="s">
-        <v>185</v>
-      </c>
-      <c r="C171" s="57" t="s">
-        <v>992</v>
-      </c>
-      <c r="D171" s="57" t="s">
+      <c r="E171" s="57" t="s">
         <v>1036</v>
       </c>
-      <c r="E171" s="57" t="s">
+      <c r="F171" s="57" t="s">
         <v>1037</v>
       </c>
-      <c r="F171" s="57" t="s">
+      <c r="G171" s="58" t="s">
         <v>1038</v>
-      </c>
-      <c r="G171" s="58" t="s">
-        <v>1039</v>
       </c>
     </row>
     <row r="172" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A172" s="53" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B172" s="56" t="s">
+        <v>380</v>
+      </c>
+      <c r="C172" s="57" t="s">
+        <v>997</v>
+      </c>
+      <c r="D172" s="57" t="s">
         <v>1040</v>
       </c>
-      <c r="B172" s="56" t="s">
-        <v>381</v>
-      </c>
-      <c r="C172" s="57" t="s">
-        <v>998</v>
-      </c>
-      <c r="D172" s="57" t="s">
+      <c r="E172" s="57" t="s">
         <v>1041</v>
       </c>
-      <c r="E172" s="57" t="s">
+      <c r="F172" s="57" t="s">
         <v>1042</v>
       </c>
-      <c r="F172" s="57" t="s">
+      <c r="G172" s="58" t="s">
         <v>1043</v>
-      </c>
-      <c r="G172" s="58" t="s">
-        <v>1044</v>
       </c>
     </row>
     <row r="173" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A173" s="53" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B173" s="56" t="s">
         <v>1045</v>
       </c>
-      <c r="B173" s="56" t="s">
+      <c r="C173" s="57" t="s">
         <v>1046</v>
       </c>
-      <c r="C173" s="57" t="s">
+      <c r="D173" s="57" t="s">
         <v>1047</v>
       </c>
-      <c r="D173" s="57" t="s">
+      <c r="E173" s="57" t="s">
         <v>1048</v>
       </c>
-      <c r="E173" s="57" t="s">
+      <c r="F173" s="57" t="s">
         <v>1049</v>
       </c>
-      <c r="F173" s="57" t="s">
+      <c r="G173" s="58" t="s">
         <v>1050</v>
-      </c>
-      <c r="G173" s="58" t="s">
-        <v>1051</v>
       </c>
     </row>
     <row r="174" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A174" s="53" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B174" s="56" t="s">
         <v>1052</v>
       </c>
-      <c r="B174" s="56" t="s">
+      <c r="C174" s="57" t="s">
         <v>1053</v>
       </c>
-      <c r="C174" s="57" t="s">
+      <c r="D174" s="57" t="s">
         <v>1054</v>
       </c>
-      <c r="D174" s="57" t="s">
+      <c r="E174" s="57" t="s">
         <v>1055</v>
       </c>
-      <c r="E174" s="57" t="s">
+      <c r="F174" s="57" t="s">
         <v>1056</v>
       </c>
-      <c r="F174" s="57" t="s">
+      <c r="G174" s="58" t="s">
         <v>1057</v>
-      </c>
-      <c r="G174" s="58" t="s">
-        <v>1058</v>
       </c>
     </row>
     <row r="175" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A175" s="53" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B175" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="C175" s="57" t="s">
         <v>1059</v>
       </c>
-      <c r="B175" s="56" t="s">
-        <v>210</v>
-      </c>
-      <c r="C175" s="57" t="s">
+      <c r="D175" s="57" t="s">
         <v>1060</v>
       </c>
-      <c r="D175" s="57" t="s">
+      <c r="E175" s="57" t="s">
         <v>1061</v>
       </c>
-      <c r="E175" s="57" t="s">
+      <c r="F175" s="57" t="s">
         <v>1062</v>
       </c>
-      <c r="F175" s="57" t="s">
+      <c r="G175" s="58" t="s">
         <v>1063</v>
-      </c>
-      <c r="G175" s="58" t="s">
-        <v>1064</v>
       </c>
     </row>
     <row r="176" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A176" s="53" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B176" s="56" t="s">
+        <v>405</v>
+      </c>
+      <c r="C176" s="57" t="s">
         <v>1065</v>
       </c>
-      <c r="B176" s="56" t="s">
-        <v>406</v>
-      </c>
-      <c r="C176" s="57" t="s">
+      <c r="D176" s="57" t="s">
         <v>1066</v>
       </c>
-      <c r="D176" s="57" t="s">
+      <c r="E176" s="57" t="s">
         <v>1067</v>
       </c>
-      <c r="E176" s="57" t="s">
+      <c r="F176" s="57" t="s">
         <v>1068</v>
       </c>
-      <c r="F176" s="57" t="s">
+      <c r="G176" s="58" t="s">
         <v>1069</v>
-      </c>
-      <c r="G176" s="58" t="s">
-        <v>1070</v>
       </c>
     </row>
     <row r="177" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A177" s="53" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B177" s="56" t="s">
+        <v>209</v>
+      </c>
+      <c r="C177" s="57" t="s">
         <v>1071</v>
       </c>
-      <c r="B177" s="56" t="s">
-        <v>210</v>
-      </c>
-      <c r="C177" s="57" t="s">
+      <c r="D177" s="57" t="s">
         <v>1072</v>
       </c>
-      <c r="D177" s="57" t="s">
+      <c r="E177" s="57" t="s">
         <v>1073</v>
       </c>
-      <c r="E177" s="57" t="s">
+      <c r="F177" s="57" t="s">
         <v>1074</v>
       </c>
-      <c r="F177" s="57" t="s">
+      <c r="G177" s="58" t="s">
         <v>1075</v>
-      </c>
-      <c r="G177" s="58" t="s">
-        <v>1076</v>
       </c>
     </row>
     <row r="178" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A178" s="53" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B178" s="56" t="s">
         <v>1077</v>
       </c>
-      <c r="B178" s="56" t="s">
+      <c r="C178" s="57" t="s">
         <v>1078</v>
       </c>
-      <c r="C178" s="57" t="s">
+      <c r="D178" s="57" t="s">
         <v>1079</v>
       </c>
-      <c r="D178" s="57" t="s">
+      <c r="E178" s="57" t="s">
         <v>1080</v>
       </c>
-      <c r="E178" s="57" t="s">
+      <c r="F178" s="57" t="s">
         <v>1081</v>
       </c>
-      <c r="F178" s="57" t="s">
+      <c r="G178" s="58" t="s">
         <v>1082</v>
-      </c>
-      <c r="G178" s="58" t="s">
-        <v>1083</v>
       </c>
     </row>
     <row r="179" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A179" s="53" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B179" s="56" t="s">
         <v>1084</v>
       </c>
-      <c r="B179" s="56" t="s">
+      <c r="C179" s="57" t="s">
         <v>1085</v>
       </c>
-      <c r="C179" s="57" t="s">
+      <c r="D179" s="57" t="s">
         <v>1086</v>
       </c>
-      <c r="D179" s="57" t="s">
+      <c r="E179" s="57" t="s">
         <v>1087</v>
       </c>
-      <c r="E179" s="57" t="s">
+      <c r="F179" s="57" t="s">
         <v>1088</v>
       </c>
-      <c r="F179" s="57" t="s">
+      <c r="G179" s="58" t="s">
         <v>1089</v>
-      </c>
-      <c r="G179" s="58" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row r="180" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A180" s="53" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B180" s="56" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C180" s="57" t="s">
         <v>1091</v>
       </c>
-      <c r="B180" s="56" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C180" s="57" t="s">
+      <c r="D180" s="57" t="s">
         <v>1092</v>
       </c>
-      <c r="D180" s="57" t="s">
+      <c r="E180" s="57" t="s">
         <v>1093</v>
       </c>
-      <c r="E180" s="57" t="s">
+      <c r="F180" s="57" t="s">
         <v>1094</v>
       </c>
-      <c r="F180" s="57" t="s">
+      <c r="G180" s="58" t="s">
         <v>1095</v>
-      </c>
-      <c r="G180" s="58" t="s">
-        <v>1096</v>
       </c>
     </row>
     <row r="181" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A181" s="53" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B181" s="56" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C181" s="57" t="s">
         <v>1097</v>
       </c>
-      <c r="B181" s="56" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C181" s="57" t="s">
+      <c r="D181" s="57" t="s">
         <v>1098</v>
       </c>
-      <c r="D181" s="57" t="s">
+      <c r="E181" s="57" t="s">
         <v>1099</v>
       </c>
-      <c r="E181" s="57" t="s">
+      <c r="F181" s="57" t="s">
         <v>1100</v>
       </c>
-      <c r="F181" s="57" t="s">
+      <c r="G181" s="58" t="s">
         <v>1101</v>
-      </c>
-      <c r="G181" s="58" t="s">
-        <v>1102</v>
       </c>
     </row>
     <row r="182" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A182" s="53" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B182" s="56" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C182" s="57" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D182" s="57" t="s">
         <v>1103</v>
       </c>
-      <c r="B182" s="56" t="s">
-        <v>1078</v>
-      </c>
-      <c r="C182" s="57" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D182" s="57" t="s">
+      <c r="E182" s="57" t="s">
         <v>1104</v>
       </c>
-      <c r="E182" s="57" t="s">
+      <c r="F182" s="57" t="s">
         <v>1105</v>
       </c>
-      <c r="F182" s="57" t="s">
+      <c r="G182" s="58" t="s">
         <v>1106</v>
-      </c>
-      <c r="G182" s="58" t="s">
-        <v>1107</v>
       </c>
     </row>
     <row r="183" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A183" s="53" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B183" s="56" t="s">
+        <v>1084</v>
+      </c>
+      <c r="C183" s="57" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D183" s="57" t="s">
         <v>1108</v>
       </c>
-      <c r="B183" s="56" t="s">
-        <v>1085</v>
-      </c>
-      <c r="C183" s="57" t="s">
-        <v>1098</v>
-      </c>
-      <c r="D183" s="57" t="s">
+      <c r="E183" s="57" t="s">
         <v>1109</v>
       </c>
-      <c r="E183" s="57" t="s">
+      <c r="F183" s="57" t="s">
         <v>1110</v>
       </c>
-      <c r="F183" s="57" t="s">
+      <c r="G183" s="58" t="s">
         <v>1111</v>
-      </c>
-      <c r="G183" s="58" t="s">
-        <v>1112</v>
       </c>
     </row>
   </sheetData>
@@ -38962,12 +38957,12 @@
   <sheetData>
     <row r="1" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="23" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="24" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.2">
@@ -38975,7 +38970,7 @@
     </row>
     <row r="4" spans="1:1" ht="136" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -39013,13 +39008,13 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="27" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>1116</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="C1" s="66" t="s">
         <v>1117</v>
-      </c>
-      <c r="C1" s="66" t="s">
-        <v>1118</v>
       </c>
       <c r="D1" s="67"/>
       <c r="E1" s="68"/>
@@ -39027,10 +39022,10 @@
     </row>
     <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="27" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B2" s="28" t="s">
         <v>1119</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>1120</v>
       </c>
       <c r="C2" s="69"/>
       <c r="D2" s="70"/>
@@ -39039,13 +39034,13 @@
     </row>
     <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="27" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B3" s="28" t="s">
         <v>1121</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="C3" s="72" t="s">
         <v>1122</v>
-      </c>
-      <c r="C3" s="72" t="s">
-        <v>1123</v>
       </c>
       <c r="D3" s="73"/>
       <c r="E3" s="74"/>
@@ -39053,10 +39048,10 @@
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="27" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B4" s="27" t="s">
         <v>1124</v>
-      </c>
-      <c r="B4" s="27" t="s">
-        <v>1125</v>
       </c>
       <c r="C4" s="31"/>
       <c r="D4" s="32"/>
@@ -39064,2004 +39059,2004 @@
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="27" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B5" s="27" t="s">
         <v>1126</v>
-      </c>
-      <c r="B5" s="27" t="s">
-        <v>1127</v>
       </c>
       <c r="C5" s="29"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="27" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B6" s="27" t="s">
         <v>1128</v>
-      </c>
-      <c r="B6" s="27" t="s">
-        <v>1129</v>
       </c>
       <c r="C6" s="29"/>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="27" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B7" s="27" t="s">
         <v>1130</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>1131</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="27" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B8" s="27" t="s">
         <v>1132</v>
-      </c>
-      <c r="B8" s="27" t="s">
-        <v>1133</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="27" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>1134</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>1135</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="27" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B10" s="27" t="s">
         <v>1136</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>1137</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="27" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B11" s="27" t="s">
         <v>1138</v>
-      </c>
-      <c r="B11" s="27" t="s">
-        <v>1139</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="27" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B12" s="27" t="s">
         <v>1140</v>
-      </c>
-      <c r="B12" s="27" t="s">
-        <v>1141</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="27" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B13" s="27" t="s">
         <v>1142</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>1143</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="27" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B14" s="27" t="s">
         <v>1144</v>
-      </c>
-      <c r="B14" s="27" t="s">
-        <v>1145</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="27" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B15" s="27" t="s">
         <v>1146</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>1147</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="27" t="s">
+        <v>1147</v>
+      </c>
+      <c r="B16" s="27" t="s">
         <v>1148</v>
-      </c>
-      <c r="B16" s="27" t="s">
-        <v>1149</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="27" t="s">
+        <v>1149</v>
+      </c>
+      <c r="B17" s="27" t="s">
         <v>1150</v>
-      </c>
-      <c r="B17" s="27" t="s">
-        <v>1151</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="27" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B18" s="27" t="s">
         <v>1152</v>
-      </c>
-      <c r="B18" s="27" t="s">
-        <v>1153</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="27" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B19" s="27" t="s">
         <v>1154</v>
-      </c>
-      <c r="B19" s="27" t="s">
-        <v>1155</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="27" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B20" s="27" t="s">
         <v>1156</v>
-      </c>
-      <c r="B20" s="27" t="s">
-        <v>1157</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="27" t="s">
+        <v>1157</v>
+      </c>
+      <c r="B21" s="27" t="s">
         <v>1158</v>
-      </c>
-      <c r="B21" s="27" t="s">
-        <v>1159</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="27" t="s">
+        <v>1159</v>
+      </c>
+      <c r="B22" s="27" t="s">
         <v>1160</v>
-      </c>
-      <c r="B22" s="27" t="s">
-        <v>1161</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="27" t="s">
+        <v>1161</v>
+      </c>
+      <c r="B23" s="27" t="s">
         <v>1162</v>
-      </c>
-      <c r="B23" s="27" t="s">
-        <v>1163</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="27" t="s">
+        <v>1163</v>
+      </c>
+      <c r="B24" s="27" t="s">
         <v>1164</v>
-      </c>
-      <c r="B24" s="27" t="s">
-        <v>1165</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="27" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B25" s="27" t="s">
         <v>1166</v>
-      </c>
-      <c r="B25" s="27" t="s">
-        <v>1167</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="27" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B26" s="27" t="s">
         <v>1168</v>
-      </c>
-      <c r="B26" s="27" t="s">
-        <v>1169</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="27" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B27" s="27" t="s">
         <v>1170</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>1171</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="27" t="s">
+        <v>1171</v>
+      </c>
+      <c r="B28" s="27" t="s">
         <v>1172</v>
-      </c>
-      <c r="B28" s="27" t="s">
-        <v>1173</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="27" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B29" s="27" t="s">
         <v>1174</v>
-      </c>
-      <c r="B29" s="27" t="s">
-        <v>1175</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="27" t="s">
+        <v>1175</v>
+      </c>
+      <c r="B30" s="27" t="s">
         <v>1176</v>
-      </c>
-      <c r="B30" s="27" t="s">
-        <v>1177</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="27" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B31" s="27" t="s">
         <v>1178</v>
-      </c>
-      <c r="B31" s="27" t="s">
-        <v>1179</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="27" t="s">
+        <v>1179</v>
+      </c>
+      <c r="B32" s="27" t="s">
         <v>1180</v>
-      </c>
-      <c r="B32" s="27" t="s">
-        <v>1181</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="27" t="s">
+        <v>1181</v>
+      </c>
+      <c r="B33" s="27" t="s">
         <v>1182</v>
-      </c>
-      <c r="B33" s="27" t="s">
-        <v>1183</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="27" t="s">
+        <v>1183</v>
+      </c>
+      <c r="B34" s="27" t="s">
         <v>1184</v>
-      </c>
-      <c r="B34" s="27" t="s">
-        <v>1185</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="27" t="s">
+        <v>1185</v>
+      </c>
+      <c r="B35" s="27" t="s">
         <v>1186</v>
-      </c>
-      <c r="B35" s="27" t="s">
-        <v>1187</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="27" t="s">
+        <v>1187</v>
+      </c>
+      <c r="B36" s="27" t="s">
         <v>1188</v>
-      </c>
-      <c r="B36" s="27" t="s">
-        <v>1189</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="27" t="s">
+        <v>1189</v>
+      </c>
+      <c r="B37" s="27" t="s">
         <v>1190</v>
-      </c>
-      <c r="B37" s="27" t="s">
-        <v>1191</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="27" t="s">
+        <v>1191</v>
+      </c>
+      <c r="B38" s="27" t="s">
         <v>1192</v>
-      </c>
-      <c r="B38" s="27" t="s">
-        <v>1193</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="27" t="s">
+        <v>1193</v>
+      </c>
+      <c r="B39" s="27" t="s">
         <v>1194</v>
-      </c>
-      <c r="B39" s="27" t="s">
-        <v>1195</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="27" t="s">
+        <v>1195</v>
+      </c>
+      <c r="B40" s="27" t="s">
         <v>1196</v>
-      </c>
-      <c r="B40" s="27" t="s">
-        <v>1197</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="27" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B41" s="27" t="s">
         <v>1198</v>
-      </c>
-      <c r="B41" s="27" t="s">
-        <v>1199</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="27" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B42" s="27" t="s">
         <v>1200</v>
-      </c>
-      <c r="B42" s="27" t="s">
-        <v>1201</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="27" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B43" s="27" t="s">
         <v>1202</v>
-      </c>
-      <c r="B43" s="27" t="s">
-        <v>1203</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="27" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B44" s="27" t="s">
         <v>1204</v>
-      </c>
-      <c r="B44" s="27" t="s">
-        <v>1205</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="27" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B45" s="27" t="s">
         <v>1206</v>
-      </c>
-      <c r="B45" s="27" t="s">
-        <v>1207</v>
       </c>
     </row>
     <row r="46" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="27" t="s">
+        <v>1207</v>
+      </c>
+      <c r="B46" s="27" t="s">
         <v>1208</v>
-      </c>
-      <c r="B46" s="27" t="s">
-        <v>1209</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="27" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B47" s="27" t="s">
         <v>1210</v>
-      </c>
-      <c r="B47" s="27" t="s">
-        <v>1211</v>
       </c>
     </row>
     <row r="48" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="27" t="s">
+        <v>1211</v>
+      </c>
+      <c r="B48" s="27" t="s">
         <v>1212</v>
-      </c>
-      <c r="B48" s="27" t="s">
-        <v>1213</v>
       </c>
     </row>
     <row r="49" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="27" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B49" s="27" t="s">
         <v>1214</v>
-      </c>
-      <c r="B49" s="27" t="s">
-        <v>1215</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="27" t="s">
+        <v>1215</v>
+      </c>
+      <c r="B50" s="27" t="s">
         <v>1216</v>
-      </c>
-      <c r="B50" s="27" t="s">
-        <v>1217</v>
       </c>
     </row>
     <row r="51" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="27" t="s">
+        <v>1217</v>
+      </c>
+      <c r="B51" s="27" t="s">
         <v>1218</v>
-      </c>
-      <c r="B51" s="27" t="s">
-        <v>1219</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="27" t="s">
+        <v>1219</v>
+      </c>
+      <c r="B52" s="27" t="s">
         <v>1220</v>
-      </c>
-      <c r="B52" s="27" t="s">
-        <v>1221</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="27" t="s">
+        <v>1221</v>
+      </c>
+      <c r="B53" s="27" t="s">
         <v>1222</v>
-      </c>
-      <c r="B53" s="27" t="s">
-        <v>1223</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="27" t="s">
+        <v>1223</v>
+      </c>
+      <c r="B54" s="27" t="s">
         <v>1224</v>
-      </c>
-      <c r="B54" s="27" t="s">
-        <v>1225</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="27" t="s">
+        <v>1225</v>
+      </c>
+      <c r="B55" s="27" t="s">
         <v>1226</v>
-      </c>
-      <c r="B55" s="27" t="s">
-        <v>1227</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="27" t="s">
+        <v>1227</v>
+      </c>
+      <c r="B56" s="27" t="s">
         <v>1228</v>
-      </c>
-      <c r="B56" s="27" t="s">
-        <v>1229</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="27" t="s">
+        <v>1229</v>
+      </c>
+      <c r="B57" s="27" t="s">
         <v>1230</v>
-      </c>
-      <c r="B57" s="27" t="s">
-        <v>1231</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="27" t="s">
+        <v>1231</v>
+      </c>
+      <c r="B58" s="27" t="s">
         <v>1232</v>
-      </c>
-      <c r="B58" s="27" t="s">
-        <v>1233</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="27" t="s">
+        <v>1233</v>
+      </c>
+      <c r="B59" s="27" t="s">
         <v>1234</v>
-      </c>
-      <c r="B59" s="27" t="s">
-        <v>1235</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="27" t="s">
+        <v>1235</v>
+      </c>
+      <c r="B60" s="27" t="s">
         <v>1236</v>
-      </c>
-      <c r="B60" s="27" t="s">
-        <v>1237</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="27" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B61" s="27" t="s">
         <v>1238</v>
-      </c>
-      <c r="B61" s="27" t="s">
-        <v>1239</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="27" t="s">
+        <v>1239</v>
+      </c>
+      <c r="B62" s="27" t="s">
         <v>1240</v>
-      </c>
-      <c r="B62" s="27" t="s">
-        <v>1241</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="27" t="s">
+        <v>1241</v>
+      </c>
+      <c r="B63" s="27" t="s">
         <v>1242</v>
-      </c>
-      <c r="B63" s="27" t="s">
-        <v>1243</v>
       </c>
     </row>
     <row r="64" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="27" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B64" s="27" t="s">
         <v>1244</v>
-      </c>
-      <c r="B64" s="27" t="s">
-        <v>1245</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="27" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B65" s="27" t="s">
         <v>1246</v>
-      </c>
-      <c r="B65" s="27" t="s">
-        <v>1247</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="27" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B66" s="27" t="s">
         <v>1248</v>
-      </c>
-      <c r="B66" s="27" t="s">
-        <v>1249</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="27" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B67" s="27" t="s">
         <v>1250</v>
-      </c>
-      <c r="B67" s="27" t="s">
-        <v>1251</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="27" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B68" s="27" t="s">
         <v>1252</v>
-      </c>
-      <c r="B68" s="27" t="s">
-        <v>1253</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="27" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B69" s="27" t="s">
         <v>1254</v>
-      </c>
-      <c r="B69" s="27" t="s">
-        <v>1255</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="27" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B70" s="27" t="s">
         <v>1256</v>
-      </c>
-      <c r="B70" s="27" t="s">
-        <v>1257</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="27" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B71" s="27" t="s">
         <v>1258</v>
-      </c>
-      <c r="B71" s="27" t="s">
-        <v>1259</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="27" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B72" s="27" t="s">
         <v>1260</v>
-      </c>
-      <c r="B72" s="27" t="s">
-        <v>1261</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="27" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B73" s="27" t="s">
         <v>1262</v>
-      </c>
-      <c r="B73" s="27" t="s">
-        <v>1263</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="27" t="s">
+        <v>1263</v>
+      </c>
+      <c r="B74" s="27" t="s">
         <v>1264</v>
-      </c>
-      <c r="B74" s="27" t="s">
-        <v>1265</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="27" t="s">
+        <v>1265</v>
+      </c>
+      <c r="B75" s="27" t="s">
         <v>1266</v>
-      </c>
-      <c r="B75" s="27" t="s">
-        <v>1267</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="27" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B76" s="27" t="s">
         <v>1268</v>
-      </c>
-      <c r="B76" s="27" t="s">
-        <v>1269</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="27" t="s">
+        <v>1269</v>
+      </c>
+      <c r="B77" s="27" t="s">
         <v>1270</v>
-      </c>
-      <c r="B77" s="27" t="s">
-        <v>1271</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="27" t="s">
+        <v>1271</v>
+      </c>
+      <c r="B78" s="27" t="s">
         <v>1272</v>
-      </c>
-      <c r="B78" s="27" t="s">
-        <v>1273</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="27" t="s">
+        <v>1273</v>
+      </c>
+      <c r="B79" s="27" t="s">
         <v>1274</v>
-      </c>
-      <c r="B79" s="27" t="s">
-        <v>1275</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="27" t="s">
+        <v>1275</v>
+      </c>
+      <c r="B80" s="27" t="s">
         <v>1276</v>
-      </c>
-      <c r="B80" s="27" t="s">
-        <v>1277</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="27" t="s">
+        <v>1277</v>
+      </c>
+      <c r="B81" s="27" t="s">
         <v>1278</v>
-      </c>
-      <c r="B81" s="27" t="s">
-        <v>1279</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="27" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B82" s="27" t="s">
         <v>1280</v>
-      </c>
-      <c r="B82" s="27" t="s">
-        <v>1281</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="27" t="s">
+        <v>1281</v>
+      </c>
+      <c r="B83" s="27" t="s">
         <v>1282</v>
-      </c>
-      <c r="B83" s="27" t="s">
-        <v>1283</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="27" t="s">
+        <v>1283</v>
+      </c>
+      <c r="B84" s="27" t="s">
         <v>1284</v>
-      </c>
-      <c r="B84" s="27" t="s">
-        <v>1285</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="27" t="s">
+        <v>1285</v>
+      </c>
+      <c r="B85" s="27" t="s">
         <v>1286</v>
-      </c>
-      <c r="B85" s="27" t="s">
-        <v>1287</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="27" t="s">
+        <v>1287</v>
+      </c>
+      <c r="B86" s="27" t="s">
         <v>1288</v>
-      </c>
-      <c r="B86" s="27" t="s">
-        <v>1289</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="27" t="s">
+        <v>1289</v>
+      </c>
+      <c r="B87" s="27" t="s">
         <v>1290</v>
-      </c>
-      <c r="B87" s="27" t="s">
-        <v>1291</v>
       </c>
     </row>
     <row r="88" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="27" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B88" s="27" t="s">
         <v>1292</v>
-      </c>
-      <c r="B88" s="27" t="s">
-        <v>1293</v>
       </c>
     </row>
     <row r="89" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="27" t="s">
+        <v>1293</v>
+      </c>
+      <c r="B89" s="27" t="s">
         <v>1294</v>
-      </c>
-      <c r="B89" s="27" t="s">
-        <v>1295</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="27" t="s">
+        <v>1295</v>
+      </c>
+      <c r="B90" s="27" t="s">
         <v>1296</v>
-      </c>
-      <c r="B90" s="27" t="s">
-        <v>1297</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="27" t="s">
+        <v>1297</v>
+      </c>
+      <c r="B91" s="27" t="s">
         <v>1298</v>
-      </c>
-      <c r="B91" s="27" t="s">
-        <v>1299</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="27" t="s">
+        <v>1299</v>
+      </c>
+      <c r="B92" s="27" t="s">
         <v>1300</v>
-      </c>
-      <c r="B92" s="27" t="s">
-        <v>1301</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="27" t="s">
+        <v>1301</v>
+      </c>
+      <c r="B93" s="27" t="s">
         <v>1302</v>
-      </c>
-      <c r="B93" s="27" t="s">
-        <v>1303</v>
       </c>
     </row>
     <row r="94" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="27" t="s">
+        <v>1303</v>
+      </c>
+      <c r="B94" s="27" t="s">
         <v>1304</v>
-      </c>
-      <c r="B94" s="27" t="s">
-        <v>1305</v>
       </c>
     </row>
     <row r="95" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="27" t="s">
+        <v>1305</v>
+      </c>
+      <c r="B95" s="27" t="s">
         <v>1306</v>
-      </c>
-      <c r="B95" s="27" t="s">
-        <v>1307</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="27" t="s">
+        <v>1307</v>
+      </c>
+      <c r="B96" s="27" t="s">
         <v>1308</v>
-      </c>
-      <c r="B96" s="27" t="s">
-        <v>1309</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="27" t="s">
+        <v>1309</v>
+      </c>
+      <c r="B97" s="27" t="s">
         <v>1310</v>
-      </c>
-      <c r="B97" s="27" t="s">
-        <v>1311</v>
       </c>
     </row>
     <row r="98" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="27" t="s">
+        <v>1311</v>
+      </c>
+      <c r="B98" s="27" t="s">
         <v>1312</v>
-      </c>
-      <c r="B98" s="27" t="s">
-        <v>1313</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="27" t="s">
+        <v>1313</v>
+      </c>
+      <c r="B99" s="27" t="s">
         <v>1314</v>
-      </c>
-      <c r="B99" s="27" t="s">
-        <v>1315</v>
       </c>
     </row>
     <row r="100" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="27" t="s">
+        <v>1315</v>
+      </c>
+      <c r="B100" s="27" t="s">
         <v>1316</v>
-      </c>
-      <c r="B100" s="27" t="s">
-        <v>1317</v>
       </c>
     </row>
     <row r="101" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="27" t="s">
+        <v>1317</v>
+      </c>
+      <c r="B101" s="27" t="s">
         <v>1318</v>
-      </c>
-      <c r="B101" s="27" t="s">
-        <v>1319</v>
       </c>
     </row>
     <row r="102" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="27" t="s">
+        <v>1319</v>
+      </c>
+      <c r="B102" s="27" t="s">
         <v>1320</v>
-      </c>
-      <c r="B102" s="27" t="s">
-        <v>1321</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="27" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B103" s="27" t="s">
         <v>1322</v>
-      </c>
-      <c r="B103" s="27" t="s">
-        <v>1323</v>
       </c>
     </row>
     <row r="104" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="27" t="s">
+        <v>1323</v>
+      </c>
+      <c r="B104" s="27" t="s">
         <v>1324</v>
-      </c>
-      <c r="B104" s="27" t="s">
-        <v>1325</v>
       </c>
     </row>
     <row r="105" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="27" t="s">
+        <v>1325</v>
+      </c>
+      <c r="B105" s="27" t="s">
         <v>1326</v>
-      </c>
-      <c r="B105" s="27" t="s">
-        <v>1327</v>
       </c>
     </row>
     <row r="106" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="27" t="s">
+        <v>1327</v>
+      </c>
+      <c r="B106" s="27" t="s">
         <v>1328</v>
-      </c>
-      <c r="B106" s="27" t="s">
-        <v>1329</v>
       </c>
     </row>
     <row r="107" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="27" t="s">
+        <v>1329</v>
+      </c>
+      <c r="B107" s="27" t="s">
         <v>1330</v>
-      </c>
-      <c r="B107" s="27" t="s">
-        <v>1331</v>
       </c>
     </row>
     <row r="108" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="27" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B108" s="27" t="s">
         <v>1332</v>
-      </c>
-      <c r="B108" s="27" t="s">
-        <v>1333</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="27" t="s">
+        <v>1333</v>
+      </c>
+      <c r="B109" s="27" t="s">
         <v>1334</v>
-      </c>
-      <c r="B109" s="27" t="s">
-        <v>1335</v>
       </c>
     </row>
     <row r="110" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="27" t="s">
+        <v>1335</v>
+      </c>
+      <c r="B110" s="27" t="s">
         <v>1336</v>
-      </c>
-      <c r="B110" s="27" t="s">
-        <v>1337</v>
       </c>
     </row>
     <row r="111" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="27" t="s">
+        <v>1337</v>
+      </c>
+      <c r="B111" s="27" t="s">
         <v>1338</v>
-      </c>
-      <c r="B111" s="27" t="s">
-        <v>1339</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="27" t="s">
+        <v>1339</v>
+      </c>
+      <c r="B112" s="27" t="s">
         <v>1340</v>
-      </c>
-      <c r="B112" s="27" t="s">
-        <v>1341</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="27" t="s">
+        <v>1341</v>
+      </c>
+      <c r="B113" s="27" t="s">
         <v>1342</v>
-      </c>
-      <c r="B113" s="27" t="s">
-        <v>1343</v>
       </c>
     </row>
     <row r="114" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="27" t="s">
+        <v>1343</v>
+      </c>
+      <c r="B114" s="27" t="s">
         <v>1344</v>
-      </c>
-      <c r="B114" s="27" t="s">
-        <v>1345</v>
       </c>
     </row>
     <row r="115" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="27" t="s">
+        <v>1345</v>
+      </c>
+      <c r="B115" s="27" t="s">
         <v>1346</v>
-      </c>
-      <c r="B115" s="27" t="s">
-        <v>1347</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="27" t="s">
+        <v>1347</v>
+      </c>
+      <c r="B116" s="27" t="s">
         <v>1348</v>
-      </c>
-      <c r="B116" s="27" t="s">
-        <v>1349</v>
       </c>
     </row>
     <row r="117" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="27" t="s">
+        <v>1349</v>
+      </c>
+      <c r="B117" s="27" t="s">
         <v>1350</v>
-      </c>
-      <c r="B117" s="27" t="s">
-        <v>1351</v>
       </c>
     </row>
     <row r="118" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="27" t="s">
+        <v>1351</v>
+      </c>
+      <c r="B118" s="27" t="s">
         <v>1352</v>
-      </c>
-      <c r="B118" s="27" t="s">
-        <v>1353</v>
       </c>
     </row>
     <row r="119" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="27" t="s">
+        <v>1353</v>
+      </c>
+      <c r="B119" s="27" t="s">
         <v>1354</v>
-      </c>
-      <c r="B119" s="27" t="s">
-        <v>1355</v>
       </c>
     </row>
     <row r="120" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="27" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B120" s="27" t="s">
         <v>1356</v>
-      </c>
-      <c r="B120" s="27" t="s">
-        <v>1357</v>
       </c>
     </row>
     <row r="121" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="27" t="s">
+        <v>1357</v>
+      </c>
+      <c r="B121" s="27" t="s">
         <v>1358</v>
-      </c>
-      <c r="B121" s="27" t="s">
-        <v>1359</v>
       </c>
     </row>
     <row r="122" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="27" t="s">
+        <v>1359</v>
+      </c>
+      <c r="B122" s="27" t="s">
         <v>1360</v>
-      </c>
-      <c r="B122" s="27" t="s">
-        <v>1361</v>
       </c>
     </row>
     <row r="123" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="27" t="s">
+        <v>1361</v>
+      </c>
+      <c r="B123" s="27" t="s">
         <v>1362</v>
-      </c>
-      <c r="B123" s="27" t="s">
-        <v>1363</v>
       </c>
     </row>
     <row r="124" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="27" t="s">
+        <v>1363</v>
+      </c>
+      <c r="B124" s="27" t="s">
         <v>1364</v>
-      </c>
-      <c r="B124" s="27" t="s">
-        <v>1365</v>
       </c>
     </row>
     <row r="125" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="27" t="s">
+        <v>1365</v>
+      </c>
+      <c r="B125" s="27" t="s">
         <v>1366</v>
-      </c>
-      <c r="B125" s="27" t="s">
-        <v>1367</v>
       </c>
     </row>
     <row r="126" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="27" t="s">
+        <v>1367</v>
+      </c>
+      <c r="B126" s="27" t="s">
         <v>1368</v>
-      </c>
-      <c r="B126" s="27" t="s">
-        <v>1369</v>
       </c>
     </row>
     <row r="127" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="27" t="s">
+        <v>1369</v>
+      </c>
+      <c r="B127" s="27" t="s">
         <v>1370</v>
-      </c>
-      <c r="B127" s="27" t="s">
-        <v>1371</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="27" t="s">
+        <v>1371</v>
+      </c>
+      <c r="B128" s="27" t="s">
         <v>1372</v>
-      </c>
-      <c r="B128" s="27" t="s">
-        <v>1373</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="27" t="s">
+        <v>1373</v>
+      </c>
+      <c r="B129" s="27" t="s">
         <v>1374</v>
-      </c>
-      <c r="B129" s="27" t="s">
-        <v>1375</v>
       </c>
     </row>
     <row r="130" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="27" t="s">
+        <v>1375</v>
+      </c>
+      <c r="B130" s="27" t="s">
         <v>1376</v>
-      </c>
-      <c r="B130" s="27" t="s">
-        <v>1377</v>
       </c>
     </row>
     <row r="131" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="27" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B131" s="27" t="s">
         <v>1378</v>
-      </c>
-      <c r="B131" s="27" t="s">
-        <v>1379</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="27" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B132" s="27" t="s">
         <v>1380</v>
-      </c>
-      <c r="B132" s="27" t="s">
-        <v>1381</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="27" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B133" s="27" t="s">
         <v>1382</v>
-      </c>
-      <c r="B133" s="27" t="s">
-        <v>1383</v>
       </c>
     </row>
     <row r="134" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="27" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B134" s="27" t="s">
         <v>1384</v>
-      </c>
-      <c r="B134" s="27" t="s">
-        <v>1385</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="27" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B135" s="27" t="s">
         <v>1386</v>
-      </c>
-      <c r="B135" s="27" t="s">
-        <v>1387</v>
       </c>
     </row>
     <row r="136" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="27" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B136" s="27" t="s">
         <v>1388</v>
-      </c>
-      <c r="B136" s="27" t="s">
-        <v>1389</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="27" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B137" s="27" t="s">
         <v>1390</v>
-      </c>
-      <c r="B137" s="27" t="s">
-        <v>1391</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="27" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B138" s="27" t="s">
         <v>1392</v>
-      </c>
-      <c r="B138" s="27" t="s">
-        <v>1393</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="27" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B139" s="27" t="s">
         <v>1394</v>
-      </c>
-      <c r="B139" s="27" t="s">
-        <v>1395</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="27" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B140" s="27" t="s">
         <v>1396</v>
-      </c>
-      <c r="B140" s="27" t="s">
-        <v>1397</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="27" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B141" s="27" t="s">
         <v>1398</v>
-      </c>
-      <c r="B141" s="27" t="s">
-        <v>1399</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="27" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B142" s="27" t="s">
         <v>1400</v>
-      </c>
-      <c r="B142" s="27" t="s">
-        <v>1401</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="27" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B143" s="27" t="s">
         <v>1402</v>
-      </c>
-      <c r="B143" s="27" t="s">
-        <v>1403</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="27" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B144" s="27" t="s">
         <v>1404</v>
-      </c>
-      <c r="B144" s="27" t="s">
-        <v>1405</v>
       </c>
     </row>
     <row r="145" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="27" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B145" s="27" t="s">
         <v>1406</v>
-      </c>
-      <c r="B145" s="27" t="s">
-        <v>1407</v>
       </c>
     </row>
     <row r="146" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="27" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B146" s="27" t="s">
         <v>1408</v>
-      </c>
-      <c r="B146" s="27" t="s">
-        <v>1409</v>
       </c>
     </row>
     <row r="147" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="27" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B147" s="27" t="s">
         <v>1410</v>
-      </c>
-      <c r="B147" s="27" t="s">
-        <v>1411</v>
       </c>
     </row>
     <row r="148" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="27" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B148" s="27" t="s">
         <v>1412</v>
-      </c>
-      <c r="B148" s="27" t="s">
-        <v>1413</v>
       </c>
     </row>
     <row r="149" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="27" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B149" s="27" t="s">
         <v>1414</v>
-      </c>
-      <c r="B149" s="27" t="s">
-        <v>1415</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="27" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B150" s="27" t="s">
         <v>1416</v>
-      </c>
-      <c r="B150" s="27" t="s">
-        <v>1417</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="27" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B151" s="27" t="s">
         <v>1418</v>
-      </c>
-      <c r="B151" s="27" t="s">
-        <v>1419</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="27" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B152" s="27" t="s">
         <v>1420</v>
-      </c>
-      <c r="B152" s="27" t="s">
-        <v>1421</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="27" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B153" s="27" t="s">
         <v>1422</v>
-      </c>
-      <c r="B153" s="27" t="s">
-        <v>1423</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="27" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B154" s="27" t="s">
         <v>1424</v>
-      </c>
-      <c r="B154" s="27" t="s">
-        <v>1425</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="27" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B155" s="27" t="s">
         <v>1426</v>
-      </c>
-      <c r="B155" s="27" t="s">
-        <v>1427</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="27" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B156" s="27" t="s">
         <v>1428</v>
-      </c>
-      <c r="B156" s="27" t="s">
-        <v>1429</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="27" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B157" s="27" t="s">
         <v>1430</v>
-      </c>
-      <c r="B157" s="27" t="s">
-        <v>1431</v>
       </c>
     </row>
     <row r="158" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="27" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B158" s="27" t="s">
         <v>1432</v>
-      </c>
-      <c r="B158" s="27" t="s">
-        <v>1433</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="27" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B159" s="27" t="s">
         <v>1434</v>
-      </c>
-      <c r="B159" s="27" t="s">
-        <v>1435</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="27" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B160" s="27" t="s">
         <v>1436</v>
-      </c>
-      <c r="B160" s="27" t="s">
-        <v>1437</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="27" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B161" s="27" t="s">
         <v>1438</v>
-      </c>
-      <c r="B161" s="27" t="s">
-        <v>1439</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="27" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B162" s="27" t="s">
         <v>1440</v>
-      </c>
-      <c r="B162" s="27" t="s">
-        <v>1441</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="27" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B163" s="27" t="s">
         <v>1442</v>
-      </c>
-      <c r="B163" s="27" t="s">
-        <v>1443</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="27" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B164" s="27" t="s">
         <v>1444</v>
-      </c>
-      <c r="B164" s="27" t="s">
-        <v>1445</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="27" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B165" s="27" t="s">
         <v>1446</v>
-      </c>
-      <c r="B165" s="27" t="s">
-        <v>1447</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="27" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B166" s="27" t="s">
         <v>1448</v>
-      </c>
-      <c r="B166" s="27" t="s">
-        <v>1449</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="27" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B167" s="27" t="s">
         <v>1450</v>
-      </c>
-      <c r="B167" s="27" t="s">
-        <v>1451</v>
       </c>
     </row>
     <row r="168" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="27" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B168" s="27" t="s">
         <v>1452</v>
-      </c>
-      <c r="B168" s="27" t="s">
-        <v>1453</v>
       </c>
     </row>
     <row r="169" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="27" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B169" s="27" t="s">
         <v>1454</v>
-      </c>
-      <c r="B169" s="27" t="s">
-        <v>1455</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="27" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B170" s="27" t="s">
         <v>1456</v>
-      </c>
-      <c r="B170" s="27" t="s">
-        <v>1457</v>
       </c>
     </row>
     <row r="171" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="27" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B171" s="27" t="s">
         <v>1458</v>
-      </c>
-      <c r="B171" s="27" t="s">
-        <v>1459</v>
       </c>
     </row>
     <row r="172" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="27" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B172" s="27" t="s">
         <v>1460</v>
-      </c>
-      <c r="B172" s="27" t="s">
-        <v>1461</v>
       </c>
     </row>
     <row r="173" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="27" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B173" s="27" t="s">
         <v>1462</v>
-      </c>
-      <c r="B173" s="27" t="s">
-        <v>1463</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="27" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B174" s="27" t="s">
         <v>1464</v>
-      </c>
-      <c r="B174" s="27" t="s">
-        <v>1465</v>
       </c>
     </row>
     <row r="175" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="27" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B175" s="27" t="s">
         <v>1466</v>
-      </c>
-      <c r="B175" s="27" t="s">
-        <v>1467</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="27" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B176" s="27" t="s">
         <v>1468</v>
-      </c>
-      <c r="B176" s="27" t="s">
-        <v>1469</v>
       </c>
     </row>
     <row r="177" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="27" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B177" s="27" t="s">
         <v>1470</v>
-      </c>
-      <c r="B177" s="27" t="s">
-        <v>1471</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="27" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B178" s="27" t="s">
         <v>1472</v>
-      </c>
-      <c r="B178" s="27" t="s">
-        <v>1473</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="27" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B179" s="27" t="s">
         <v>1474</v>
-      </c>
-      <c r="B179" s="27" t="s">
-        <v>1475</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="27" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B180" s="27" t="s">
         <v>1476</v>
-      </c>
-      <c r="B180" s="27" t="s">
-        <v>1477</v>
       </c>
     </row>
     <row r="181" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="27" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B181" s="27" t="s">
         <v>1478</v>
-      </c>
-      <c r="B181" s="27" t="s">
-        <v>1479</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="27" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B182" s="27" t="s">
         <v>1480</v>
-      </c>
-      <c r="B182" s="27" t="s">
-        <v>1481</v>
       </c>
     </row>
     <row r="183" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="27" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B183" s="27" t="s">
         <v>1482</v>
-      </c>
-      <c r="B183" s="27" t="s">
-        <v>1483</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="27" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B184" s="27" t="s">
         <v>1484</v>
-      </c>
-      <c r="B184" s="27" t="s">
-        <v>1485</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="27" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B185" s="27" t="s">
         <v>1486</v>
-      </c>
-      <c r="B185" s="27" t="s">
-        <v>1487</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="27" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B186" s="27" t="s">
         <v>1488</v>
-      </c>
-      <c r="B186" s="27" t="s">
-        <v>1489</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="27" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B187" s="27" t="s">
         <v>1490</v>
-      </c>
-      <c r="B187" s="27" t="s">
-        <v>1491</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="27" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B188" s="27" t="s">
         <v>1492</v>
-      </c>
-      <c r="B188" s="27" t="s">
-        <v>1493</v>
       </c>
     </row>
     <row r="189" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="27" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B189" s="27" t="s">
         <v>1494</v>
-      </c>
-      <c r="B189" s="27" t="s">
-        <v>1495</v>
       </c>
     </row>
     <row r="190" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="27" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B190" s="27" t="s">
         <v>1496</v>
-      </c>
-      <c r="B190" s="27" t="s">
-        <v>1497</v>
       </c>
     </row>
     <row r="191" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="27" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B191" s="27" t="s">
         <v>1498</v>
-      </c>
-      <c r="B191" s="27" t="s">
-        <v>1499</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="27" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B192" s="27" t="s">
         <v>1500</v>
-      </c>
-      <c r="B192" s="27" t="s">
-        <v>1501</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="27" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B193" s="27" t="s">
         <v>1502</v>
-      </c>
-      <c r="B193" s="27" t="s">
-        <v>1503</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="27" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B194" s="27" t="s">
         <v>1504</v>
-      </c>
-      <c r="B194" s="27" t="s">
-        <v>1505</v>
       </c>
     </row>
     <row r="195" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="27" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B195" s="27" t="s">
         <v>1506</v>
-      </c>
-      <c r="B195" s="27" t="s">
-        <v>1507</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="27" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B196" s="27" t="s">
         <v>1508</v>
-      </c>
-      <c r="B196" s="27" t="s">
-        <v>1509</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="27" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B197" s="27" t="s">
         <v>1510</v>
-      </c>
-      <c r="B197" s="27" t="s">
-        <v>1511</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="27" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B198" s="27" t="s">
         <v>1512</v>
-      </c>
-      <c r="B198" s="27" t="s">
-        <v>1513</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="27" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B199" s="27" t="s">
         <v>1514</v>
-      </c>
-      <c r="B199" s="27" t="s">
-        <v>1515</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="27" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B200" s="27" t="s">
         <v>1516</v>
-      </c>
-      <c r="B200" s="27" t="s">
-        <v>1517</v>
       </c>
     </row>
     <row r="201" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="27" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B201" s="27" t="s">
         <v>1518</v>
-      </c>
-      <c r="B201" s="27" t="s">
-        <v>1519</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="27" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B202" s="27" t="s">
         <v>1520</v>
-      </c>
-      <c r="B202" s="27" t="s">
-        <v>1521</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="27" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B203" s="27" t="s">
         <v>1522</v>
-      </c>
-      <c r="B203" s="27" t="s">
-        <v>1523</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="27" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B204" s="27" t="s">
         <v>1524</v>
-      </c>
-      <c r="B204" s="27" t="s">
-        <v>1525</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="27" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B205" s="27" t="s">
         <v>1526</v>
-      </c>
-      <c r="B205" s="27" t="s">
-        <v>1527</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="27" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B206" s="27" t="s">
         <v>1528</v>
-      </c>
-      <c r="B206" s="27" t="s">
-        <v>1529</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="27" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B207" s="27" t="s">
         <v>1530</v>
-      </c>
-      <c r="B207" s="27" t="s">
-        <v>1531</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="27" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B208" s="27" t="s">
         <v>1532</v>
-      </c>
-      <c r="B208" s="27" t="s">
-        <v>1533</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="27" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B209" s="27" t="s">
         <v>1534</v>
-      </c>
-      <c r="B209" s="27" t="s">
-        <v>1535</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="27" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B210" s="27" t="s">
         <v>1536</v>
-      </c>
-      <c r="B210" s="27" t="s">
-        <v>1537</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="27" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B211" s="27" t="s">
         <v>1538</v>
-      </c>
-      <c r="B211" s="27" t="s">
-        <v>1539</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="27" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B212" s="27" t="s">
         <v>1540</v>
-      </c>
-      <c r="B212" s="27" t="s">
-        <v>1541</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="27" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B213" s="27" t="s">
         <v>1542</v>
-      </c>
-      <c r="B213" s="27" t="s">
-        <v>1543</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="27" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B214" s="27" t="s">
         <v>1544</v>
-      </c>
-      <c r="B214" s="27" t="s">
-        <v>1545</v>
       </c>
     </row>
     <row r="215" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="27" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B215" s="27" t="s">
         <v>1546</v>
-      </c>
-      <c r="B215" s="27" t="s">
-        <v>1547</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="27" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B216" s="27" t="s">
         <v>1548</v>
-      </c>
-      <c r="B216" s="27" t="s">
-        <v>1549</v>
       </c>
     </row>
     <row r="217" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="27" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B217" s="27" t="s">
         <v>1550</v>
-      </c>
-      <c r="B217" s="27" t="s">
-        <v>1551</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="27" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B218" s="27" t="s">
         <v>1552</v>
-      </c>
-      <c r="B218" s="27" t="s">
-        <v>1553</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="27" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B219" s="27" t="s">
         <v>1554</v>
-      </c>
-      <c r="B219" s="27" t="s">
-        <v>1555</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="27" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B220" s="27" t="s">
         <v>1556</v>
-      </c>
-      <c r="B220" s="27" t="s">
-        <v>1557</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="27" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B221" s="27" t="s">
         <v>1558</v>
-      </c>
-      <c r="B221" s="27" t="s">
-        <v>1559</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="27" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B222" s="27" t="s">
         <v>1560</v>
-      </c>
-      <c r="B222" s="27" t="s">
-        <v>1561</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="27" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B223" s="27" t="s">
         <v>1562</v>
-      </c>
-      <c r="B223" s="27" t="s">
-        <v>1563</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="27" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B224" s="27" t="s">
         <v>1564</v>
-      </c>
-      <c r="B224" s="27" t="s">
-        <v>1565</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="27" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B225" s="27" t="s">
         <v>1566</v>
-      </c>
-      <c r="B225" s="27" t="s">
-        <v>1567</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="27" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B226" s="27" t="s">
         <v>1568</v>
-      </c>
-      <c r="B226" s="27" t="s">
-        <v>1569</v>
       </c>
     </row>
     <row r="227" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="27" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B227" s="27" t="s">
         <v>1570</v>
-      </c>
-      <c r="B227" s="27" t="s">
-        <v>1571</v>
       </c>
     </row>
     <row r="228" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="27" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B228" s="27" t="s">
         <v>1572</v>
-      </c>
-      <c r="B228" s="27" t="s">
-        <v>1573</v>
       </c>
     </row>
     <row r="229" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="27" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B229" s="27" t="s">
         <v>1574</v>
-      </c>
-      <c r="B229" s="27" t="s">
-        <v>1575</v>
       </c>
     </row>
     <row r="230" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="27" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B230" s="27" t="s">
         <v>1576</v>
-      </c>
-      <c r="B230" s="27" t="s">
-        <v>1577</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="27" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B231" s="27" t="s">
         <v>1578</v>
-      </c>
-      <c r="B231" s="27" t="s">
-        <v>1579</v>
       </c>
     </row>
     <row r="232" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="27" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B232" s="27" t="s">
         <v>1580</v>
-      </c>
-      <c r="B232" s="27" t="s">
-        <v>1581</v>
       </c>
     </row>
     <row r="233" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="27" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B233" s="27" t="s">
         <v>1582</v>
-      </c>
-      <c r="B233" s="27" t="s">
-        <v>1583</v>
       </c>
     </row>
     <row r="234" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="27" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B234" s="27" t="s">
         <v>1584</v>
-      </c>
-      <c r="B234" s="27" t="s">
-        <v>1585</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="27" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B235" s="27" t="s">
         <v>1586</v>
-      </c>
-      <c r="B235" s="27" t="s">
-        <v>1587</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="27" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B236" s="27" t="s">
         <v>1588</v>
-      </c>
-      <c r="B236" s="27" t="s">
-        <v>1589</v>
       </c>
     </row>
     <row r="237" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="27" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B237" s="27" t="s">
         <v>1590</v>
-      </c>
-      <c r="B237" s="27" t="s">
-        <v>1591</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="27" t="s">
+        <v>1591</v>
+      </c>
+      <c r="B238" s="27" t="s">
         <v>1592</v>
-      </c>
-      <c r="B238" s="27" t="s">
-        <v>1593</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="27" t="s">
+        <v>1593</v>
+      </c>
+      <c r="B239" s="27" t="s">
         <v>1594</v>
-      </c>
-      <c r="B239" s="27" t="s">
-        <v>1595</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="27" t="s">
+        <v>1595</v>
+      </c>
+      <c r="B240" s="27" t="s">
         <v>1596</v>
-      </c>
-      <c r="B240" s="27" t="s">
-        <v>1597</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="27" t="s">
+        <v>1597</v>
+      </c>
+      <c r="B241" s="27" t="s">
         <v>1598</v>
-      </c>
-      <c r="B241" s="27" t="s">
-        <v>1599</v>
       </c>
     </row>
     <row r="242" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="27" t="s">
+        <v>1599</v>
+      </c>
+      <c r="B242" s="27" t="s">
         <v>1600</v>
-      </c>
-      <c r="B242" s="27" t="s">
-        <v>1601</v>
       </c>
     </row>
     <row r="243" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="27" t="s">
+        <v>1601</v>
+      </c>
+      <c r="B243" s="27" t="s">
         <v>1602</v>
-      </c>
-      <c r="B243" s="27" t="s">
-        <v>1603</v>
       </c>
     </row>
     <row r="244" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="27" t="s">
+        <v>1603</v>
+      </c>
+      <c r="B244" s="27" t="s">
         <v>1604</v>
-      </c>
-      <c r="B244" s="27" t="s">
-        <v>1605</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="27" t="s">
+        <v>1605</v>
+      </c>
+      <c r="B245" s="27" t="s">
         <v>1606</v>
-      </c>
-      <c r="B245" s="27" t="s">
-        <v>1607</v>
       </c>
     </row>
     <row r="246" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="27" t="s">
+        <v>1607</v>
+      </c>
+      <c r="B246" s="27" t="s">
         <v>1608</v>
-      </c>
-      <c r="B246" s="27" t="s">
-        <v>1609</v>
       </c>
     </row>
     <row r="247" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="27" t="s">
+        <v>1609</v>
+      </c>
+      <c r="B247" s="27" t="s">
         <v>1610</v>
-      </c>
-      <c r="B247" s="27" t="s">
-        <v>1611</v>
       </c>
     </row>
     <row r="248" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="27" t="s">
+        <v>1611</v>
+      </c>
+      <c r="B248" s="27" t="s">
         <v>1612</v>
-      </c>
-      <c r="B248" s="27" t="s">
-        <v>1613</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="27" t="s">
+        <v>1613</v>
+      </c>
+      <c r="B249" s="27" t="s">
         <v>1614</v>
-      </c>
-      <c r="B249" s="27" t="s">
-        <v>1615</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="27" t="s">
+        <v>1615</v>
+      </c>
+      <c r="B250" s="27" t="s">
         <v>1616</v>
-      </c>
-      <c r="B250" s="27" t="s">
-        <v>1617</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="27" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B251" s="27" t="s">
         <v>1618</v>
-      </c>
-      <c r="B251" s="27" t="s">
-        <v>1619</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="27" t="s">
+        <v>1619</v>
+      </c>
+      <c r="B252" s="27" t="s">
         <v>1620</v>
-      </c>
-      <c r="B252" s="27" t="s">
-        <v>1621</v>
       </c>
     </row>
     <row r="253" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="27" t="s">
+        <v>1621</v>
+      </c>
+      <c r="B253" s="27" t="s">
         <v>1622</v>
-      </c>
-      <c r="B253" s="27" t="s">
-        <v>1623</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="27" t="s">
+        <v>1623</v>
+      </c>
+      <c r="B254" s="27" t="s">
         <v>1624</v>
-      </c>
-      <c r="B254" s="27" t="s">
-        <v>1625</v>
       </c>
     </row>
   </sheetData>
@@ -41077,15 +41072,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="18390984-f7d9-4502-80ba-82ec344db5fb">
@@ -41094,6 +41080,15 @@
     <TaxCatchAll xmlns="629dd2dc-abea-47e8-ba88-82202e3ee8ef" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -41334,20 +41329,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EF1FD61-C2E6-4843-9418-343E38DCD8AB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8DCF1D7-99F7-4202-82A6-46959FA5E53C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="18390984-f7d9-4502-80ba-82ec344db5fb"/>
     <ds:schemaRef ds:uri="629dd2dc-abea-47e8-ba88-82202e3ee8ef"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5EF1FD61-C2E6-4843-9418-343E38DCD8AB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
